--- a/python_xlsx/데이터 가공_0309.xlsx
+++ b/python_xlsx/데이터 가공_0309.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k_digital\python_workspace\python_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{DD340EAD-8D6D-4660-9D9E-DD23E378F49A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{2C7BBC71-E070-4EEC-859B-07E281868252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,16 +18,17 @@
     <sheet name="표기사항" sheetId="3" r:id="rId3"/>
     <sheet name="구매목록" sheetId="4" r:id="rId4"/>
     <sheet name="찜목록" sheetId="5" r:id="rId5"/>
-    <sheet name="DB데이터" sheetId="6" r:id="rId6"/>
+    <sheet name="알고리즘필터" sheetId="7" r:id="rId6"/>
+    <sheet name="DB데이터" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">DB데이터!$AY$1:$BE$482</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DB데이터!$AY$1:$BE$482</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">구매목록!$I$3:$J$288</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId7"/>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="6" r:id="rId8"/>
+    <pivotCache cacheId="8" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="371">
   <si>
     <t>cate_key
 (카테고리 고유번호)</t>
@@ -1180,6 +1181,62 @@
     <t>xmmzslla</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>user_pass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick_name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_of_birthday</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hihi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hehe</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1191,7 +1248,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1244,6 +1301,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1454,7 +1525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1551,6 +1622,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,10 +1643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1584,7 +1664,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="조현수" refreshedDate="44995.484560879631" refreshedVersion="6" recordCount="481" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="조현수" refreshedDate="44997.781793981485" refreshedVersion="6" recordCount="481" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="AY1:BE482" sheet="DB데이터"/>
   </cacheSource>
@@ -1609,58 +1689,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2700" maxValue="81000"/>
     </cacheField>
     <cacheField name="오더번호" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50" count="50">
-        <n v="1"/>
-        <n v="2"/>
-        <n v="3"/>
-        <n v="4"/>
-        <n v="5"/>
-        <n v="6"/>
-        <n v="7"/>
-        <n v="8"/>
-        <n v="9"/>
-        <n v="10"/>
-        <n v="11"/>
-        <n v="12"/>
-        <n v="13"/>
-        <n v="14"/>
-        <n v="15"/>
-        <n v="16"/>
-        <n v="17"/>
-        <n v="18"/>
-        <n v="19"/>
-        <n v="20"/>
-        <n v="21"/>
-        <n v="22"/>
-        <n v="23"/>
-        <n v="24"/>
-        <n v="25"/>
-        <n v="26"/>
-        <n v="27"/>
-        <n v="28"/>
-        <n v="29"/>
-        <n v="30"/>
-        <n v="31"/>
-        <n v="32"/>
-        <n v="33"/>
-        <n v="34"/>
-        <n v="35"/>
-        <n v="36"/>
-        <n v="37"/>
-        <n v="38"/>
-        <n v="39"/>
-        <n v="40"/>
-        <n v="41"/>
-        <n v="42"/>
-        <n v="43"/>
-        <n v="44"/>
-        <n v="45"/>
-        <n v="46"/>
-        <n v="47"/>
-        <n v="48"/>
-        <n v="49"/>
-        <n v="50"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="50"/>
     </cacheField>
     <cacheField name="상품코드" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="53" count="53">
@@ -1743,7 +1772,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="조현수" refreshedDate="44995.484561111109" refreshedVersion="6" recordCount="88" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="조현수" refreshedDate="44997.781794097224" refreshedVersion="6" recordCount="88" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="T1:X89" sheet="DB데이터"/>
   </cacheSource>
@@ -1778,7 +1807,7 @@
     <n v="1"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="0"/>
@@ -1787,7 +1816,7 @@
     <n v="2"/>
     <x v="1"/>
     <n v="6840"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="1"/>
     <s v="라즈베리 바닐라 아이스크림 스틱"/>
     <x v="0"/>
@@ -1796,7 +1825,7 @@
     <n v="3"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="0"/>
@@ -1805,7 +1834,7 @@
     <n v="4"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="0"/>
@@ -1814,7 +1843,7 @@
     <n v="5"/>
     <x v="0"/>
     <n v="4230"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="4"/>
     <s v="하동 녹차 아이스크림(1개)"/>
     <x v="0"/>
@@ -1823,7 +1852,7 @@
     <n v="6"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="0"/>
@@ -1832,7 +1861,7 @@
     <n v="7"/>
     <x v="0"/>
     <n v="7380"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="6"/>
     <s v="스틱 츄러스(4개)"/>
     <x v="0"/>
@@ -1841,7 +1870,7 @@
     <n v="8"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="0"/>
+    <n v="1"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="0"/>
@@ -1850,7 +1879,7 @@
     <n v="9"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="0"/>
@@ -1859,7 +1888,7 @@
     <n v="10"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="0"/>
@@ -1868,7 +1897,7 @@
     <n v="11"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="0"/>
@@ -1877,7 +1906,7 @@
     <n v="12"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="0"/>
@@ -1886,7 +1915,7 @@
     <n v="13"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="0"/>
@@ -1895,7 +1924,7 @@
     <n v="14"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="0"/>
@@ -1904,7 +1933,7 @@
     <n v="15"/>
     <x v="1"/>
     <n v="30240"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="0"/>
@@ -1913,7 +1942,7 @@
     <n v="16"/>
     <x v="2"/>
     <n v="21060"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="0"/>
@@ -1922,7 +1951,7 @@
     <n v="17"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="0"/>
@@ -1931,7 +1960,7 @@
     <n v="18"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="16"/>
     <s v="딸기 유자 찹쌀떡(4개)"/>
     <x v="0"/>
@@ -1940,7 +1969,7 @@
     <n v="19"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="0"/>
@@ -1949,7 +1978,7 @@
     <n v="20"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="18"/>
     <s v="메론빵(1개)"/>
     <x v="0"/>
@@ -1958,7 +1987,7 @@
     <n v="21"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="1"/>
+    <n v="2"/>
     <x v="19"/>
     <s v="초코 막대 사탕(3개)"/>
     <x v="0"/>
@@ -1967,7 +1996,7 @@
     <n v="22"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="2"/>
+    <n v="3"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="1"/>
@@ -1976,7 +2005,7 @@
     <n v="23"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="2"/>
+    <n v="3"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="1"/>
@@ -1985,7 +2014,7 @@
     <n v="24"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="2"/>
+    <n v="3"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="1"/>
@@ -1994,7 +2023,7 @@
     <n v="25"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="2"/>
+    <n v="3"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="1"/>
@@ -2003,7 +2032,7 @@
     <n v="26"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="2"/>
+    <n v="3"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="1"/>
@@ -2012,7 +2041,7 @@
     <n v="27"/>
     <x v="0"/>
     <n v="3420"/>
-    <x v="3"/>
+    <n v="4"/>
     <x v="1"/>
     <s v="라즈베리 바닐라 아이스크림 스틱"/>
     <x v="2"/>
@@ -2021,7 +2050,7 @@
     <n v="28"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="3"/>
+    <n v="4"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="2"/>
@@ -2030,7 +2059,7 @@
     <n v="29"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="3"/>
+    <n v="4"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="2"/>
@@ -2039,7 +2068,7 @@
     <n v="30"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="3"/>
+    <n v="4"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="2"/>
@@ -2048,7 +2077,7 @@
     <n v="31"/>
     <x v="0"/>
     <n v="8550"/>
-    <x v="3"/>
+    <n v="4"/>
     <x v="25"/>
     <s v="에그 타르트(4개)"/>
     <x v="2"/>
@@ -2057,7 +2086,7 @@
     <n v="32"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="3"/>
+    <n v="4"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="2"/>
@@ -2066,7 +2095,7 @@
     <n v="33"/>
     <x v="0"/>
     <n v="32400"/>
-    <x v="3"/>
+    <n v="4"/>
     <x v="27"/>
     <s v="크리미 단호박 파이(홀)"/>
     <x v="2"/>
@@ -2075,7 +2104,7 @@
     <n v="34"/>
     <x v="0"/>
     <n v="6120"/>
-    <x v="4"/>
+    <n v="5"/>
     <x v="28"/>
     <s v="스트로베리 치즈 케이크(조각)"/>
     <x v="3"/>
@@ -2084,7 +2113,7 @@
     <n v="35"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="4"/>
+    <n v="5"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="3"/>
@@ -2093,7 +2122,7 @@
     <n v="36"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="4"/>
+    <n v="5"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="3"/>
@@ -2102,7 +2131,7 @@
     <n v="37"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="0"/>
@@ -2111,7 +2140,7 @@
     <n v="38"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="0"/>
@@ -2120,7 +2149,7 @@
     <n v="39"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="0"/>
@@ -2129,7 +2158,7 @@
     <n v="40"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="0"/>
@@ -2138,7 +2167,7 @@
     <n v="41"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="0"/>
@@ -2147,7 +2176,7 @@
     <n v="42"/>
     <x v="0"/>
     <n v="17100"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="34"/>
     <s v="화이트 초콜릿(200g)"/>
     <x v="0"/>
@@ -2156,7 +2185,7 @@
     <n v="43"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="0"/>
@@ -2165,7 +2194,7 @@
     <n v="44"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="0"/>
@@ -2174,7 +2203,7 @@
     <n v="45"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="19"/>
     <s v="초코 막대 사탕(3개)"/>
     <x v="0"/>
@@ -2183,7 +2212,7 @@
     <n v="46"/>
     <x v="0"/>
     <n v="32400"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="27"/>
     <s v="크리미 단호박 파이(홀)"/>
     <x v="0"/>
@@ -2192,7 +2221,7 @@
     <n v="47"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="0"/>
@@ -2201,7 +2230,7 @@
     <n v="48"/>
     <x v="3"/>
     <n v="49500"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="16"/>
     <s v="딸기 유자 찹쌀떡(4개)"/>
     <x v="0"/>
@@ -2210,7 +2239,7 @@
     <n v="49"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="0"/>
@@ -2219,7 +2248,7 @@
     <n v="50"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="5"/>
+    <n v="6"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="0"/>
@@ -2228,7 +2257,7 @@
     <n v="51"/>
     <x v="0"/>
     <n v="3330"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="37"/>
     <s v="동글떡 녹차(4개)"/>
     <x v="2"/>
@@ -2237,7 +2266,7 @@
     <n v="52"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="2"/>
@@ -2246,7 +2275,7 @@
     <n v="53"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="2"/>
@@ -2255,7 +2284,7 @@
     <n v="54"/>
     <x v="4"/>
     <n v="24300"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="2"/>
@@ -2264,7 +2293,7 @@
     <n v="55"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="2"/>
@@ -2273,7 +2302,7 @@
     <n v="56"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="2"/>
@@ -2282,7 +2311,7 @@
     <n v="57"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="40"/>
     <s v="커피맛 마카롱(3개)"/>
     <x v="2"/>
@@ -2291,7 +2320,7 @@
     <n v="58"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="2"/>
@@ -2300,7 +2329,7 @@
     <n v="59"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="6"/>
+    <n v="7"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="2"/>
@@ -2309,7 +2338,7 @@
     <n v="60"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="1"/>
@@ -2318,7 +2347,7 @@
     <n v="61"/>
     <x v="0"/>
     <n v="6120"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="28"/>
     <s v="스트로베리 치즈 케이크(조각)"/>
     <x v="1"/>
@@ -2327,7 +2356,7 @@
     <n v="62"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="1"/>
@@ -2336,7 +2365,7 @@
     <n v="63"/>
     <x v="0"/>
     <n v="32400"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="27"/>
     <s v="크리미 단호박 파이(홀)"/>
     <x v="1"/>
@@ -2345,7 +2374,7 @@
     <n v="64"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="1"/>
@@ -2354,7 +2383,7 @@
     <n v="65"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="1"/>
@@ -2363,7 +2392,7 @@
     <n v="66"/>
     <x v="0"/>
     <n v="4950"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="42"/>
     <s v="체다치즈 브레드(1개)"/>
     <x v="1"/>
@@ -2372,7 +2401,7 @@
     <n v="67"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="1"/>
@@ -2381,7 +2410,7 @@
     <n v="68"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="1"/>
@@ -2390,7 +2419,7 @@
     <n v="69"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="1"/>
@@ -2399,7 +2428,7 @@
     <n v="70"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="1"/>
@@ -2408,7 +2437,7 @@
     <n v="71"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="1"/>
@@ -2417,7 +2446,7 @@
     <n v="72"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="1"/>
@@ -2426,7 +2455,7 @@
     <n v="73"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="1"/>
@@ -2435,7 +2464,7 @@
     <n v="74"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="1"/>
@@ -2444,7 +2473,7 @@
     <n v="75"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="1"/>
@@ -2453,7 +2482,7 @@
     <n v="76"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="1"/>
@@ -2462,7 +2491,7 @@
     <n v="77"/>
     <x v="0"/>
     <n v="5220"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="45"/>
     <s v="스마일 캔디(50g)"/>
     <x v="1"/>
@@ -2471,7 +2500,7 @@
     <n v="78"/>
     <x v="0"/>
     <n v="3330"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="37"/>
     <s v="동글떡 녹차(4개)"/>
     <x v="1"/>
@@ -2480,7 +2509,7 @@
     <n v="79"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="19"/>
     <s v="초코 막대 사탕(3개)"/>
     <x v="1"/>
@@ -2489,7 +2518,7 @@
     <n v="80"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="1"/>
@@ -2498,7 +2527,7 @@
     <n v="81"/>
     <x v="0"/>
     <n v="17100"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="34"/>
     <s v="화이트 초콜릿(200g)"/>
     <x v="1"/>
@@ -2507,7 +2536,7 @@
     <n v="82"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="1"/>
@@ -2516,7 +2545,7 @@
     <n v="83"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="40"/>
     <s v="커피맛 마카롱(3개)"/>
     <x v="1"/>
@@ -2525,7 +2554,7 @@
     <n v="84"/>
     <x v="0"/>
     <n v="8550"/>
-    <x v="7"/>
+    <n v="8"/>
     <x v="25"/>
     <s v="에그 타르트(4개)"/>
     <x v="1"/>
@@ -2534,7 +2563,7 @@
     <n v="85"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="4"/>
@@ -2543,7 +2572,7 @@
     <n v="86"/>
     <x v="0"/>
     <n v="3330"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="37"/>
     <s v="동글떡 녹차(4개)"/>
     <x v="4"/>
@@ -2552,7 +2581,7 @@
     <n v="87"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="4"/>
@@ -2561,7 +2590,7 @@
     <n v="88"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="4"/>
@@ -2570,7 +2599,7 @@
     <n v="89"/>
     <x v="0"/>
     <n v="32400"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="27"/>
     <s v="크리미 단호박 파이(홀)"/>
     <x v="4"/>
@@ -2579,7 +2608,7 @@
     <n v="90"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="4"/>
@@ -2588,7 +2617,7 @@
     <n v="91"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="4"/>
@@ -2597,7 +2626,7 @@
     <n v="92"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="4"/>
@@ -2606,7 +2635,7 @@
     <n v="93"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="4"/>
@@ -2615,7 +2644,7 @@
     <n v="94"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="8"/>
+    <n v="9"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="4"/>
@@ -2624,7 +2653,7 @@
     <n v="95"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="4"/>
@@ -2633,7 +2662,7 @@
     <n v="96"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="4"/>
@@ -2642,7 +2671,7 @@
     <n v="97"/>
     <x v="0"/>
     <n v="8550"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="25"/>
     <s v="에그 타르트(4개)"/>
     <x v="4"/>
@@ -2651,7 +2680,7 @@
     <n v="98"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="4"/>
@@ -2660,7 +2689,7 @@
     <n v="99"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="4"/>
@@ -2669,7 +2698,7 @@
     <n v="100"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="4"/>
@@ -2678,7 +2707,7 @@
     <n v="101"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="4"/>
@@ -2687,7 +2716,7 @@
     <n v="102"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="4"/>
@@ -2696,7 +2725,7 @@
     <n v="103"/>
     <x v="2"/>
     <n v="9450"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="18"/>
     <s v="메론빵(1개)"/>
     <x v="4"/>
@@ -2705,7 +2734,7 @@
     <n v="104"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="9"/>
+    <n v="10"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="4"/>
@@ -2714,7 +2743,7 @@
     <n v="105"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="10"/>
+    <n v="11"/>
     <x v="19"/>
     <s v="초코 막대 사탕(3개)"/>
     <x v="3"/>
@@ -2723,7 +2752,7 @@
     <n v="106"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="10"/>
+    <n v="11"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="3"/>
@@ -2732,7 +2761,7 @@
     <n v="107"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="10"/>
+    <n v="11"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="3"/>
@@ -2741,7 +2770,7 @@
     <n v="108"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="10"/>
+    <n v="11"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="3"/>
@@ -2750,7 +2779,7 @@
     <n v="109"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="10"/>
+    <n v="11"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="3"/>
@@ -2759,7 +2788,7 @@
     <n v="110"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="1"/>
@@ -2768,7 +2797,7 @@
     <n v="111"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="1"/>
@@ -2777,7 +2806,7 @@
     <n v="112"/>
     <x v="0"/>
     <n v="4230"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="4"/>
     <s v="하동 녹차 아이스크림(1개)"/>
     <x v="1"/>
@@ -2786,7 +2815,7 @@
     <n v="113"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="1"/>
@@ -2795,7 +2824,7 @@
     <n v="114"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="1"/>
@@ -2804,7 +2833,7 @@
     <n v="115"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="1"/>
@@ -2813,7 +2842,7 @@
     <n v="116"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="1"/>
@@ -2822,7 +2851,7 @@
     <n v="117"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="40"/>
     <s v="커피맛 마카롱(3개)"/>
     <x v="1"/>
@@ -2831,7 +2860,7 @@
     <n v="118"/>
     <x v="3"/>
     <n v="81000"/>
-    <x v="11"/>
+    <n v="12"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="1"/>
@@ -2840,7 +2869,7 @@
     <n v="119"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="12"/>
+    <n v="13"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="4"/>
@@ -2849,7 +2878,7 @@
     <n v="120"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="12"/>
+    <n v="13"/>
     <x v="40"/>
     <s v="커피맛 마카롱(3개)"/>
     <x v="4"/>
@@ -2858,7 +2887,7 @@
     <n v="121"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="12"/>
+    <n v="13"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="4"/>
@@ -2867,7 +2896,7 @@
     <n v="122"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="13"/>
+    <n v="14"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="5"/>
@@ -2876,7 +2905,7 @@
     <n v="123"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="13"/>
+    <n v="14"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="5"/>
@@ -2885,7 +2914,7 @@
     <n v="124"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="13"/>
+    <n v="14"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="5"/>
@@ -2894,7 +2923,7 @@
     <n v="125"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="13"/>
+    <n v="14"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="5"/>
@@ -2903,7 +2932,7 @@
     <n v="126"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="13"/>
+    <n v="14"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="5"/>
@@ -2912,7 +2941,7 @@
     <n v="127"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="14"/>
+    <n v="15"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="4"/>
@@ -2921,7 +2950,7 @@
     <n v="128"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="14"/>
+    <n v="15"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="4"/>
@@ -2930,7 +2959,7 @@
     <n v="129"/>
     <x v="1"/>
     <n v="13500"/>
-    <x v="14"/>
+    <n v="15"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="4"/>
@@ -2939,7 +2968,7 @@
     <n v="130"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="15"/>
+    <n v="16"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="1"/>
@@ -2948,7 +2977,7 @@
     <n v="131"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="15"/>
+    <n v="16"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="1"/>
@@ -2957,7 +2986,7 @@
     <n v="132"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="15"/>
+    <n v="16"/>
     <x v="16"/>
     <s v="딸기 유자 찹쌀떡(4개)"/>
     <x v="1"/>
@@ -2966,7 +2995,7 @@
     <n v="133"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="15"/>
+    <n v="16"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="1"/>
@@ -2975,7 +3004,7 @@
     <n v="134"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="16"/>
+    <n v="17"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="1"/>
@@ -2984,7 +3013,7 @@
     <n v="135"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="16"/>
+    <n v="17"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="1"/>
@@ -2993,7 +3022,7 @@
     <n v="136"/>
     <x v="0"/>
     <n v="6120"/>
-    <x v="16"/>
+    <n v="17"/>
     <x v="28"/>
     <s v="스트로베리 치즈 케이크(조각)"/>
     <x v="1"/>
@@ -3002,7 +3031,7 @@
     <n v="137"/>
     <x v="0"/>
     <n v="7380"/>
-    <x v="16"/>
+    <n v="17"/>
     <x v="6"/>
     <s v="스틱 츄러스(4개)"/>
     <x v="1"/>
@@ -3011,7 +3040,7 @@
     <n v="138"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="16"/>
+    <n v="17"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="1"/>
@@ -3020,7 +3049,7 @@
     <n v="139"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="16"/>
+    <n v="17"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="1"/>
@@ -3029,7 +3058,7 @@
     <n v="140"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="17"/>
+    <n v="18"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="2"/>
@@ -3038,7 +3067,7 @@
     <n v="141"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="17"/>
+    <n v="18"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="2"/>
@@ -3047,7 +3076,7 @@
     <n v="142"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="17"/>
+    <n v="18"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="2"/>
@@ -3056,7 +3085,7 @@
     <n v="143"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="18"/>
+    <n v="19"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="0"/>
@@ -3065,7 +3094,7 @@
     <n v="144"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="18"/>
+    <n v="19"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="0"/>
@@ -3074,7 +3103,7 @@
     <n v="145"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="18"/>
+    <n v="19"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="0"/>
@@ -3083,7 +3112,7 @@
     <n v="146"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="18"/>
+    <n v="19"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="0"/>
@@ -3092,7 +3121,7 @@
     <n v="147"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="18"/>
+    <n v="19"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="0"/>
@@ -3101,7 +3130,7 @@
     <n v="148"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="18"/>
+    <n v="19"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="0"/>
@@ -3110,7 +3139,7 @@
     <n v="149"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="19"/>
+    <n v="20"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="2"/>
@@ -3119,7 +3148,7 @@
     <n v="150"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="19"/>
+    <n v="20"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="2"/>
@@ -3128,7 +3157,7 @@
     <n v="151"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="19"/>
+    <n v="20"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="2"/>
@@ -3137,7 +3166,7 @@
     <n v="152"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="19"/>
+    <n v="20"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="2"/>
@@ -3146,7 +3175,7 @@
     <n v="153"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="19"/>
+    <n v="20"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="2"/>
@@ -3155,7 +3184,7 @@
     <n v="154"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="19"/>
+    <n v="20"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="2"/>
@@ -3164,7 +3193,7 @@
     <n v="155"/>
     <x v="0"/>
     <n v="17100"/>
-    <x v="19"/>
+    <n v="20"/>
     <x v="34"/>
     <s v="화이트 초콜릿(200g)"/>
     <x v="2"/>
@@ -3173,7 +3202,7 @@
     <n v="156"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="5"/>
@@ -3182,7 +3211,7 @@
     <n v="157"/>
     <x v="1"/>
     <n v="11700"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="5"/>
@@ -3191,7 +3220,7 @@
     <n v="158"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="5"/>
@@ -3200,7 +3229,7 @@
     <n v="159"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="5"/>
@@ -3209,7 +3238,7 @@
     <n v="160"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="5"/>
@@ -3218,7 +3247,7 @@
     <n v="161"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="5"/>
@@ -3227,7 +3256,7 @@
     <n v="162"/>
     <x v="0"/>
     <n v="6120"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="28"/>
     <s v="스트로베리 치즈 케이크(조각)"/>
     <x v="5"/>
@@ -3236,7 +3265,7 @@
     <n v="163"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="5"/>
@@ -3245,7 +3274,7 @@
     <n v="164"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="5"/>
@@ -3254,7 +3283,7 @@
     <n v="165"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="19"/>
     <s v="초코 막대 사탕(3개)"/>
     <x v="5"/>
@@ -3263,7 +3292,7 @@
     <n v="166"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="5"/>
@@ -3272,7 +3301,7 @@
     <n v="167"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="5"/>
@@ -3281,7 +3310,7 @@
     <n v="168"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="5"/>
@@ -3290,7 +3319,7 @@
     <n v="169"/>
     <x v="0"/>
     <n v="3330"/>
-    <x v="20"/>
+    <n v="21"/>
     <x v="37"/>
     <s v="동글떡 녹차(4개)"/>
     <x v="5"/>
@@ -3299,7 +3328,7 @@
     <n v="170"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="21"/>
+    <n v="22"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="0"/>
@@ -3308,7 +3337,7 @@
     <n v="171"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="21"/>
+    <n v="22"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="0"/>
@@ -3317,7 +3346,7 @@
     <n v="172"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="21"/>
+    <n v="22"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="0"/>
@@ -3326,7 +3355,7 @@
     <n v="173"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="21"/>
+    <n v="22"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="0"/>
@@ -3335,7 +3364,7 @@
     <n v="174"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="22"/>
+    <n v="23"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="0"/>
@@ -3344,7 +3373,7 @@
     <n v="175"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="22"/>
+    <n v="23"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="0"/>
@@ -3353,7 +3382,7 @@
     <n v="176"/>
     <x v="0"/>
     <n v="8010"/>
-    <x v="22"/>
+    <n v="23"/>
     <x v="51"/>
     <s v="미니 시나몬롤(6개)"/>
     <x v="0"/>
@@ -3362,7 +3391,7 @@
     <n v="177"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="22"/>
+    <n v="23"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="0"/>
@@ -3371,7 +3400,7 @@
     <n v="178"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="22"/>
+    <n v="23"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="0"/>
@@ -3380,7 +3409,7 @@
     <n v="179"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="22"/>
+    <n v="23"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="0"/>
@@ -3389,7 +3418,7 @@
     <n v="180"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="4"/>
@@ -3398,7 +3427,7 @@
     <n v="181"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="52"/>
     <s v="베리 요거트(1개)"/>
     <x v="4"/>
@@ -3407,7 +3436,7 @@
     <n v="182"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="40"/>
     <s v="커피맛 마카롱(3개)"/>
     <x v="4"/>
@@ -3416,7 +3445,7 @@
     <n v="183"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="4"/>
@@ -3425,7 +3454,7 @@
     <n v="184"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="4"/>
@@ -3434,7 +3463,7 @@
     <n v="185"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="4"/>
@@ -3443,7 +3472,7 @@
     <n v="186"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="4"/>
@@ -3452,7 +3481,7 @@
     <n v="187"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="23"/>
+    <n v="24"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="4"/>
@@ -3461,7 +3490,7 @@
     <n v="188"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="0"/>
@@ -3470,7 +3499,7 @@
     <n v="189"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="0"/>
@@ -3479,7 +3508,7 @@
     <n v="190"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="0"/>
@@ -3488,7 +3517,7 @@
     <n v="191"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="0"/>
@@ -3497,7 +3526,7 @@
     <n v="192"/>
     <x v="0"/>
     <n v="17100"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="34"/>
     <s v="화이트 초콜릿(200g)"/>
     <x v="0"/>
@@ -3506,7 +3535,7 @@
     <n v="193"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="0"/>
@@ -3515,7 +3544,7 @@
     <n v="194"/>
     <x v="3"/>
     <n v="33750"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="0"/>
@@ -3524,7 +3553,7 @@
     <n v="195"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="0"/>
@@ -3533,7 +3562,7 @@
     <n v="196"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="0"/>
@@ -3542,7 +3571,7 @@
     <n v="197"/>
     <x v="0"/>
     <n v="3420"/>
-    <x v="24"/>
+    <n v="25"/>
     <x v="1"/>
     <s v="라즈베리 바닐라 아이스크림 스틱"/>
     <x v="0"/>
@@ -3551,7 +3580,7 @@
     <n v="198"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="25"/>
+    <n v="26"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="0"/>
@@ -3560,7 +3589,7 @@
     <n v="199"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="25"/>
+    <n v="26"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="0"/>
@@ -3569,7 +3598,7 @@
     <n v="200"/>
     <x v="0"/>
     <n v="4230"/>
-    <x v="25"/>
+    <n v="26"/>
     <x v="4"/>
     <s v="하동 녹차 아이스크림(1개)"/>
     <x v="0"/>
@@ -3578,7 +3607,7 @@
     <n v="201"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="25"/>
+    <n v="26"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="0"/>
@@ -3587,7 +3616,7 @@
     <n v="202"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="26"/>
+    <n v="27"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="4"/>
@@ -3596,7 +3625,7 @@
     <n v="203"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="26"/>
+    <n v="27"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="4"/>
@@ -3605,7 +3634,7 @@
     <n v="204"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="26"/>
+    <n v="27"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="4"/>
@@ -3614,7 +3643,7 @@
     <n v="205"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="26"/>
+    <n v="27"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="4"/>
@@ -3623,7 +3652,7 @@
     <n v="206"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="26"/>
+    <n v="27"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="4"/>
@@ -3632,7 +3661,7 @@
     <n v="207"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="26"/>
+    <n v="27"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="4"/>
@@ -3641,7 +3670,7 @@
     <n v="208"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="26"/>
+    <n v="27"/>
     <x v="52"/>
     <s v="베리 요거트(1개)"/>
     <x v="4"/>
@@ -3650,7 +3679,7 @@
     <n v="209"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="27"/>
+    <n v="28"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="5"/>
@@ -3659,7 +3688,7 @@
     <n v="210"/>
     <x v="2"/>
     <n v="21060"/>
-    <x v="27"/>
+    <n v="28"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="5"/>
@@ -3668,7 +3697,7 @@
     <n v="211"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="27"/>
+    <n v="28"/>
     <x v="18"/>
     <s v="메론빵(1개)"/>
     <x v="5"/>
@@ -3677,7 +3706,7 @@
     <n v="212"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="27"/>
+    <n v="28"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="5"/>
@@ -3686,7 +3715,7 @@
     <n v="213"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="27"/>
+    <n v="28"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="5"/>
@@ -3695,7 +3724,7 @@
     <n v="214"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="28"/>
+    <n v="29"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="1"/>
@@ -3704,7 +3733,7 @@
     <n v="215"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="28"/>
+    <n v="29"/>
     <x v="52"/>
     <s v="베리 요거트(1개)"/>
     <x v="1"/>
@@ -3713,7 +3742,7 @@
     <n v="216"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="28"/>
+    <n v="29"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="1"/>
@@ -3722,7 +3751,7 @@
     <n v="217"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="28"/>
+    <n v="29"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="1"/>
@@ -3731,7 +3760,7 @@
     <n v="218"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="28"/>
+    <n v="29"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="1"/>
@@ -3740,7 +3769,7 @@
     <n v="219"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="28"/>
+    <n v="29"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="1"/>
@@ -3749,7 +3778,7 @@
     <n v="220"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="28"/>
+    <n v="29"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="1"/>
@@ -3758,7 +3787,7 @@
     <n v="221"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="2"/>
@@ -3767,7 +3796,7 @@
     <n v="222"/>
     <x v="5"/>
     <n v="70200"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="2"/>
@@ -3776,7 +3805,7 @@
     <n v="223"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="2"/>
@@ -3785,7 +3814,7 @@
     <n v="224"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="16"/>
     <s v="딸기 유자 찹쌀떡(4개)"/>
     <x v="2"/>
@@ -3794,7 +3823,7 @@
     <n v="225"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="2"/>
@@ -3803,7 +3832,7 @@
     <n v="226"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="2"/>
@@ -3812,7 +3841,7 @@
     <n v="227"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="2"/>
@@ -3821,7 +3850,7 @@
     <n v="228"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="2"/>
@@ -3830,7 +3859,7 @@
     <n v="229"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="2"/>
@@ -3839,7 +3868,7 @@
     <n v="230"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="29"/>
+    <n v="30"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="2"/>
@@ -3848,7 +3877,7 @@
     <n v="231"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="4"/>
@@ -3857,7 +3886,7 @@
     <n v="232"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="4"/>
@@ -3866,7 +3895,7 @@
     <n v="233"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="4"/>
@@ -3875,7 +3904,7 @@
     <n v="234"/>
     <x v="0"/>
     <n v="4230"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="4"/>
     <s v="하동 녹차 아이스크림(1개)"/>
     <x v="4"/>
@@ -3884,7 +3913,7 @@
     <n v="235"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="4"/>
@@ -3893,7 +3922,7 @@
     <n v="236"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="4"/>
@@ -3902,7 +3931,7 @@
     <n v="237"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="4"/>
@@ -3911,7 +3940,7 @@
     <n v="238"/>
     <x v="2"/>
     <n v="9450"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="4"/>
@@ -3920,7 +3949,7 @@
     <n v="239"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="4"/>
@@ -3929,7 +3958,7 @@
     <n v="240"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="4"/>
@@ -3938,7 +3967,7 @@
     <n v="241"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="4"/>
@@ -3947,7 +3976,7 @@
     <n v="242"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="4"/>
@@ -3956,7 +3985,7 @@
     <n v="243"/>
     <x v="0"/>
     <n v="32400"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="27"/>
     <s v="크리미 단호박 파이(홀)"/>
     <x v="4"/>
@@ -3965,7 +3994,7 @@
     <n v="244"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="30"/>
+    <n v="31"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="4"/>
@@ -3974,7 +4003,7 @@
     <n v="245"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="31"/>
+    <n v="32"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="0"/>
@@ -3983,7 +4012,7 @@
     <n v="246"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="31"/>
+    <n v="32"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="0"/>
@@ -3992,7 +4021,7 @@
     <n v="247"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="31"/>
+    <n v="32"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="0"/>
@@ -4001,7 +4030,7 @@
     <n v="248"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="31"/>
+    <n v="32"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="0"/>
@@ -4010,7 +4039,7 @@
     <n v="249"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="31"/>
+    <n v="32"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="0"/>
@@ -4019,7 +4048,7 @@
     <n v="250"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="31"/>
+    <n v="32"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="0"/>
@@ -4028,7 +4057,7 @@
     <n v="251"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="31"/>
+    <n v="32"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="0"/>
@@ -4037,7 +4066,7 @@
     <n v="252"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="32"/>
+    <n v="33"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="4"/>
@@ -4046,7 +4075,7 @@
     <n v="253"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="32"/>
+    <n v="33"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="4"/>
@@ -4055,7 +4084,7 @@
     <n v="254"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="32"/>
+    <n v="33"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="4"/>
@@ -4064,7 +4093,7 @@
     <n v="255"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="32"/>
+    <n v="33"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="4"/>
@@ -4073,7 +4102,7 @@
     <n v="256"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="32"/>
+    <n v="33"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="4"/>
@@ -4082,7 +4111,7 @@
     <n v="257"/>
     <x v="0"/>
     <n v="8550"/>
-    <x v="32"/>
+    <n v="33"/>
     <x v="25"/>
     <s v="에그 타르트(4개)"/>
     <x v="4"/>
@@ -4091,7 +4120,7 @@
     <n v="258"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="2"/>
@@ -4100,7 +4129,7 @@
     <n v="259"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="2"/>
@@ -4109,7 +4138,7 @@
     <n v="260"/>
     <x v="6"/>
     <n v="28350"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="2"/>
@@ -4118,7 +4147,7 @@
     <n v="261"/>
     <x v="0"/>
     <n v="3420"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="1"/>
     <s v="라즈베리 바닐라 아이스크림 스틱"/>
     <x v="2"/>
@@ -4127,7 +4156,7 @@
     <n v="262"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="2"/>
@@ -4136,7 +4165,7 @@
     <n v="263"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="2"/>
@@ -4145,7 +4174,7 @@
     <n v="264"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="2"/>
@@ -4154,7 +4183,7 @@
     <n v="265"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="2"/>
@@ -4163,7 +4192,7 @@
     <n v="266"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="52"/>
     <s v="베리 요거트(1개)"/>
     <x v="2"/>
@@ -4172,7 +4201,7 @@
     <n v="267"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="2"/>
@@ -4181,7 +4210,7 @@
     <n v="268"/>
     <x v="0"/>
     <n v="8550"/>
-    <x v="33"/>
+    <n v="34"/>
     <x v="25"/>
     <s v="에그 타르트(4개)"/>
     <x v="2"/>
@@ -4190,7 +4219,7 @@
     <n v="269"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="5"/>
@@ -4199,7 +4228,7 @@
     <n v="270"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="5"/>
@@ -4208,7 +4237,7 @@
     <n v="271"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="5"/>
@@ -4217,7 +4246,7 @@
     <n v="272"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="5"/>
@@ -4226,7 +4255,7 @@
     <n v="273"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="5"/>
@@ -4235,7 +4264,7 @@
     <n v="274"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="5"/>
@@ -4244,7 +4273,7 @@
     <n v="275"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="5"/>
@@ -4253,7 +4282,7 @@
     <n v="276"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="34"/>
+    <n v="35"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="5"/>
@@ -4262,7 +4291,7 @@
     <n v="277"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="35"/>
+    <n v="36"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="4"/>
@@ -4271,7 +4300,7 @@
     <n v="278"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="35"/>
+    <n v="36"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="4"/>
@@ -4280,7 +4309,7 @@
     <n v="279"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="35"/>
+    <n v="36"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="4"/>
@@ -4289,7 +4318,7 @@
     <n v="280"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="35"/>
+    <n v="36"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="4"/>
@@ -4298,7 +4327,7 @@
     <n v="281"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="2"/>
@@ -4307,7 +4336,7 @@
     <n v="282"/>
     <x v="0"/>
     <n v="7380"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="6"/>
     <s v="스틱 츄러스(4개)"/>
     <x v="2"/>
@@ -4316,7 +4345,7 @@
     <n v="283"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="2"/>
@@ -4325,7 +4354,7 @@
     <n v="284"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="2"/>
@@ -4334,7 +4363,7 @@
     <n v="285"/>
     <x v="7"/>
     <n v="60300"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="2"/>
@@ -4343,7 +4372,7 @@
     <n v="286"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="2"/>
@@ -4352,7 +4381,7 @@
     <n v="287"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="2"/>
@@ -4361,7 +4390,7 @@
     <n v="288"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="36"/>
+    <n v="37"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="2"/>
@@ -4370,7 +4399,7 @@
     <n v="289"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="4"/>
@@ -4379,7 +4408,7 @@
     <n v="290"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="4"/>
@@ -4388,7 +4417,7 @@
     <n v="291"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="4"/>
@@ -4397,7 +4426,7 @@
     <n v="292"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="4"/>
@@ -4406,7 +4435,7 @@
     <n v="293"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="4"/>
@@ -4415,7 +4444,7 @@
     <n v="294"/>
     <x v="0"/>
     <n v="8550"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="25"/>
     <s v="에그 타르트(4개)"/>
     <x v="4"/>
@@ -4424,7 +4453,7 @@
     <n v="295"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="4"/>
@@ -4433,7 +4462,7 @@
     <n v="296"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="4"/>
@@ -4442,7 +4471,7 @@
     <n v="297"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="4"/>
@@ -4451,7 +4480,7 @@
     <n v="298"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="4"/>
@@ -4460,7 +4489,7 @@
     <n v="299"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="37"/>
+    <n v="38"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="4"/>
@@ -4469,7 +4498,7 @@
     <n v="300"/>
     <x v="6"/>
     <n v="28350"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="3"/>
@@ -4478,7 +4507,7 @@
     <n v="301"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="3"/>
@@ -4487,7 +4516,7 @@
     <n v="302"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="3"/>
@@ -4496,7 +4525,7 @@
     <n v="303"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="3"/>
@@ -4505,7 +4534,7 @@
     <n v="304"/>
     <x v="0"/>
     <n v="4230"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="4"/>
     <s v="하동 녹차 아이스크림(1개)"/>
     <x v="3"/>
@@ -4514,7 +4543,7 @@
     <n v="305"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="3"/>
@@ -4523,7 +4552,7 @@
     <n v="306"/>
     <x v="0"/>
     <n v="8100"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="3"/>
@@ -4532,7 +4561,7 @@
     <n v="307"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="3"/>
@@ -4541,7 +4570,7 @@
     <n v="308"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="3"/>
@@ -4550,7 +4579,7 @@
     <n v="309"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="3"/>
@@ -4559,7 +4588,7 @@
     <n v="310"/>
     <x v="0"/>
     <n v="5220"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="45"/>
     <s v="스마일 캔디(50g)"/>
     <x v="3"/>
@@ -4568,7 +4597,7 @@
     <n v="311"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="38"/>
+    <n v="39"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="3"/>
@@ -4577,7 +4606,7 @@
     <n v="312"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="3"/>
@@ -4586,7 +4615,7 @@
     <n v="313"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="3"/>
@@ -4595,7 +4624,7 @@
     <n v="314"/>
     <x v="7"/>
     <n v="27000"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="3"/>
@@ -4604,7 +4633,7 @@
     <n v="315"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="3"/>
@@ -4613,7 +4642,7 @@
     <n v="316"/>
     <x v="0"/>
     <n v="8010"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="51"/>
     <s v="미니 시나몬롤(6개)"/>
     <x v="3"/>
@@ -4622,7 +4651,7 @@
     <n v="317"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="3"/>
@@ -4631,7 +4660,7 @@
     <n v="318"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="3"/>
@@ -4640,7 +4669,7 @@
     <n v="319"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="3"/>
@@ -4649,7 +4678,7 @@
     <n v="320"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="3"/>
@@ -4658,7 +4687,7 @@
     <n v="321"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="3"/>
@@ -4667,7 +4696,7 @@
     <n v="322"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="18"/>
     <s v="메론빵(1개)"/>
     <x v="3"/>
@@ -4676,7 +4705,7 @@
     <n v="323"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="3"/>
@@ -4685,7 +4714,7 @@
     <n v="324"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="3"/>
@@ -4694,7 +4723,7 @@
     <n v="325"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="39"/>
+    <n v="40"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="3"/>
@@ -4703,7 +4732,7 @@
     <n v="326"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="2"/>
@@ -4712,7 +4741,7 @@
     <n v="327"/>
     <x v="0"/>
     <n v="32400"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="27"/>
     <s v="크리미 단호박 파이(홀)"/>
     <x v="2"/>
@@ -4721,7 +4750,7 @@
     <n v="328"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="2"/>
@@ -4730,7 +4759,7 @@
     <n v="329"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="2"/>
@@ -4739,7 +4768,7 @@
     <n v="330"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="18"/>
     <s v="메론빵(1개)"/>
     <x v="2"/>
@@ -4748,7 +4777,7 @@
     <n v="331"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="2"/>
@@ -4757,7 +4786,7 @@
     <n v="332"/>
     <x v="0"/>
     <n v="5220"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="45"/>
     <s v="스마일 캔디(50g)"/>
     <x v="2"/>
@@ -4766,7 +4795,7 @@
     <n v="333"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="2"/>
@@ -4775,7 +4804,7 @@
     <n v="334"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="2"/>
@@ -4784,7 +4813,7 @@
     <n v="335"/>
     <x v="2"/>
     <n v="24300"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="2"/>
@@ -4793,7 +4822,7 @@
     <n v="336"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="2"/>
@@ -4802,7 +4831,7 @@
     <n v="337"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="2"/>
@@ -4811,7 +4840,7 @@
     <n v="338"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="2"/>
@@ -4820,7 +4849,7 @@
     <n v="339"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="2"/>
@@ -4829,7 +4858,7 @@
     <n v="340"/>
     <x v="0"/>
     <n v="6120"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="28"/>
     <s v="스트로베리 치즈 케이크(조각)"/>
     <x v="2"/>
@@ -4838,7 +4867,7 @@
     <n v="341"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="40"/>
+    <n v="41"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="2"/>
@@ -4847,7 +4876,7 @@
     <n v="342"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="4"/>
@@ -4856,7 +4885,7 @@
     <n v="343"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="4"/>
@@ -4865,7 +4894,7 @@
     <n v="344"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="4"/>
@@ -4874,7 +4903,7 @@
     <n v="345"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="4"/>
@@ -4883,7 +4912,7 @@
     <n v="346"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="4"/>
@@ -4892,7 +4921,7 @@
     <n v="347"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="4"/>
@@ -4901,7 +4930,7 @@
     <n v="348"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="4"/>
@@ -4910,7 +4939,7 @@
     <n v="349"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="4"/>
@@ -4919,7 +4948,7 @@
     <n v="350"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="4"/>
@@ -4928,7 +4957,7 @@
     <n v="351"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="4"/>
@@ -4937,7 +4966,7 @@
     <n v="352"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="4"/>
@@ -4946,7 +4975,7 @@
     <n v="353"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="4"/>
@@ -4955,7 +4984,7 @@
     <n v="354"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="4"/>
@@ -4964,7 +4993,7 @@
     <n v="355"/>
     <x v="0"/>
     <n v="3330"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="37"/>
     <s v="동글떡 녹차(4개)"/>
     <x v="4"/>
@@ -4973,7 +5002,7 @@
     <n v="356"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="4"/>
@@ -4982,7 +5011,7 @@
     <n v="357"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="4"/>
@@ -4991,7 +5020,7 @@
     <n v="358"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="4"/>
@@ -5000,7 +5029,7 @@
     <n v="359"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="41"/>
+    <n v="42"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="4"/>
@@ -5009,7 +5038,7 @@
     <n v="360"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="6"/>
@@ -5018,7 +5047,7 @@
     <n v="361"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="30"/>
     <s v="초코 바른 마시멜로우(4개)"/>
     <x v="6"/>
@@ -5027,7 +5056,7 @@
     <n v="362"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="6"/>
@@ -5036,7 +5065,7 @@
     <n v="363"/>
     <x v="0"/>
     <n v="3330"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="37"/>
     <s v="동글떡 녹차(4개)"/>
     <x v="6"/>
@@ -5045,7 +5074,7 @@
     <n v="364"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="6"/>
@@ -5054,7 +5083,7 @@
     <n v="365"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="6"/>
@@ -5063,7 +5092,7 @@
     <n v="366"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="6"/>
@@ -5072,7 +5101,7 @@
     <n v="367"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="6"/>
@@ -5081,7 +5110,7 @@
     <n v="368"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="6"/>
@@ -5090,7 +5119,7 @@
     <n v="369"/>
     <x v="0"/>
     <n v="21600"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="10"/>
     <s v="파운드 케이크 곡물(홀)"/>
     <x v="6"/>
@@ -5099,7 +5128,7 @@
     <n v="370"/>
     <x v="0"/>
     <n v="7380"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="6"/>
     <s v="스틱 츄러스(4개)"/>
     <x v="6"/>
@@ -5108,7 +5137,7 @@
     <n v="371"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="6"/>
@@ -5117,7 +5146,7 @@
     <n v="372"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="6"/>
@@ -5126,7 +5155,7 @@
     <n v="373"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="6"/>
@@ -5135,7 +5164,7 @@
     <n v="374"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="6"/>
@@ -5144,7 +5173,7 @@
     <n v="375"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="6"/>
@@ -5153,7 +5182,7 @@
     <n v="376"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="6"/>
@@ -5162,7 +5191,7 @@
     <n v="377"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="6"/>
@@ -5171,7 +5200,7 @@
     <n v="378"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="6"/>
@@ -5180,7 +5209,7 @@
     <n v="379"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="6"/>
@@ -5189,7 +5218,7 @@
     <n v="380"/>
     <x v="0"/>
     <n v="5220"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="45"/>
     <s v="스마일 캔디(50g)"/>
     <x v="6"/>
@@ -5198,7 +5227,7 @@
     <n v="381"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="6"/>
@@ -5207,7 +5236,7 @@
     <n v="382"/>
     <x v="0"/>
     <n v="6300"/>
-    <x v="42"/>
+    <n v="43"/>
     <x v="3"/>
     <s v="크로아상 플레인(2개)"/>
     <x v="6"/>
@@ -5216,7 +5245,7 @@
     <n v="383"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="0"/>
@@ -5225,7 +5254,7 @@
     <n v="384"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="0"/>
@@ -5234,7 +5263,7 @@
     <n v="385"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="52"/>
     <s v="베리 요거트(1개)"/>
     <x v="0"/>
@@ -5243,7 +5272,7 @@
     <n v="386"/>
     <x v="8"/>
     <n v="59040"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="6"/>
     <s v="스틱 츄러스(4개)"/>
     <x v="0"/>
@@ -5252,7 +5281,7 @@
     <n v="387"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="0"/>
@@ -5261,7 +5290,7 @@
     <n v="388"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="0"/>
@@ -5270,7 +5299,7 @@
     <n v="389"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="0"/>
@@ -5279,7 +5308,7 @@
     <n v="390"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="0"/>
@@ -5288,7 +5317,7 @@
     <n v="391"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="40"/>
     <s v="커피맛 마카롱(3개)"/>
     <x v="0"/>
@@ -5297,7 +5326,7 @@
     <n v="392"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="43"/>
+    <n v="44"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="0"/>
@@ -5306,7 +5335,7 @@
     <n v="393"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="5"/>
@@ -5315,7 +5344,7 @@
     <n v="394"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="5"/>
@@ -5324,7 +5353,7 @@
     <n v="395"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="5"/>
@@ -5333,7 +5362,7 @@
     <n v="396"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="5"/>
@@ -5342,7 +5371,7 @@
     <n v="397"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="5"/>
@@ -5351,7 +5380,7 @@
     <n v="398"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="5"/>
@@ -5360,7 +5389,7 @@
     <n v="399"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="32"/>
     <s v="귀리 건강빵"/>
     <x v="5"/>
@@ -5369,7 +5398,7 @@
     <n v="400"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="5"/>
@@ -5378,7 +5407,7 @@
     <n v="401"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="5"/>
@@ -5387,7 +5416,7 @@
     <n v="402"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="5"/>
@@ -5396,7 +5425,7 @@
     <n v="403"/>
     <x v="0"/>
     <n v="4950"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="42"/>
     <s v="체다치즈 브레드(1개)"/>
     <x v="5"/>
@@ -5405,7 +5434,7 @@
     <n v="404"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="44"/>
+    <n v="45"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="5"/>
@@ -5414,7 +5443,7 @@
     <n v="405"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="45"/>
+    <n v="46"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="0"/>
@@ -5423,7 +5452,7 @@
     <n v="406"/>
     <x v="3"/>
     <n v="40500"/>
-    <x v="45"/>
+    <n v="46"/>
     <x v="22"/>
     <s v="알록달록 아이스크림"/>
     <x v="0"/>
@@ -5432,7 +5461,7 @@
     <n v="407"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="45"/>
+    <n v="46"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="0"/>
@@ -5441,7 +5470,7 @@
     <n v="408"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="45"/>
+    <n v="46"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="0"/>
@@ -5450,7 +5479,7 @@
     <n v="409"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="45"/>
+    <n v="46"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="0"/>
@@ -5459,7 +5488,7 @@
     <n v="410"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="45"/>
+    <n v="46"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="0"/>
@@ -5468,7 +5497,7 @@
     <n v="411"/>
     <x v="0"/>
     <n v="13050"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="4"/>
@@ -5477,7 +5506,7 @@
     <n v="412"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="4"/>
@@ -5486,7 +5515,7 @@
     <n v="413"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="4"/>
@@ -5495,7 +5524,7 @@
     <n v="414"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="4"/>
@@ -5504,7 +5533,7 @@
     <n v="415"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="4"/>
@@ -5513,7 +5542,7 @@
     <n v="416"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="4"/>
@@ -5522,7 +5551,7 @@
     <n v="417"/>
     <x v="0"/>
     <n v="8010"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="51"/>
     <s v="미니 시나몬롤(6개)"/>
     <x v="4"/>
@@ -5531,7 +5560,7 @@
     <n v="418"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="46"/>
+    <n v="47"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="4"/>
@@ -5540,7 +5569,7 @@
     <n v="419"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="6"/>
@@ -5549,7 +5578,7 @@
     <n v="420"/>
     <x v="0"/>
     <n v="3420"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="1"/>
     <s v="라즈베리 바닐라 아이스크림 스틱"/>
     <x v="6"/>
@@ -5558,7 +5587,7 @@
     <n v="421"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="18"/>
     <s v="메론빵(1개)"/>
     <x v="6"/>
@@ -5567,7 +5596,7 @@
     <n v="422"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="6"/>
@@ -5576,7 +5605,7 @@
     <n v="423"/>
     <x v="0"/>
     <n v="8550"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="25"/>
     <s v="에그 타르트(4개)"/>
     <x v="6"/>
@@ -5585,7 +5614,7 @@
     <n v="424"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="6"/>
@@ -5594,7 +5623,7 @@
     <n v="425"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="6"/>
@@ -5603,7 +5632,7 @@
     <n v="426"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="6"/>
@@ -5612,7 +5641,7 @@
     <n v="427"/>
     <x v="1"/>
     <n v="14760"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="6"/>
     <s v="스틱 츄러스(4개)"/>
     <x v="6"/>
@@ -5621,7 +5650,7 @@
     <n v="428"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="26"/>
     <s v="시나몬 크레페 케이크(피스)"/>
     <x v="6"/>
@@ -5630,7 +5659,7 @@
     <n v="429"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="6"/>
@@ -5639,7 +5668,7 @@
     <n v="430"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="16"/>
     <s v="딸기 유자 찹쌀떡(4개)"/>
     <x v="6"/>
@@ -5648,7 +5677,7 @@
     <n v="431"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="6"/>
@@ -5657,7 +5686,7 @@
     <n v="432"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="6"/>
@@ -5666,7 +5695,7 @@
     <n v="433"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="6"/>
@@ -5675,7 +5704,7 @@
     <n v="434"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="47"/>
+    <n v="48"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="6"/>
@@ -5684,7 +5713,7 @@
     <n v="435"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="35"/>
     <s v="커피 한스푼(200g)"/>
     <x v="2"/>
@@ -5693,7 +5722,7 @@
     <n v="436"/>
     <x v="0"/>
     <n v="2700"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="7"/>
     <s v="소금빵"/>
     <x v="2"/>
@@ -5702,7 +5731,7 @@
     <n v="437"/>
     <x v="0"/>
     <n v="7200"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="2"/>
     <s v="초콜렛쿠키"/>
     <x v="2"/>
@@ -5711,7 +5740,7 @@
     <n v="438"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="2"/>
@@ -5720,7 +5749,7 @@
     <n v="439"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="0"/>
     <s v="워터멜론 캔디(50g)"/>
     <x v="2"/>
@@ -5729,7 +5758,7 @@
     <n v="440"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="44"/>
     <s v="그린티 마블 쿠키(100g)"/>
     <x v="2"/>
@@ -5738,7 +5767,7 @@
     <n v="441"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="2"/>
@@ -5747,7 +5776,7 @@
     <n v="442"/>
     <x v="0"/>
     <n v="3870"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="15"/>
     <s v="커스터드 푸딩(1개)"/>
     <x v="2"/>
@@ -5756,7 +5785,7 @@
     <n v="443"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="2"/>
@@ -5765,7 +5794,7 @@
     <n v="444"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="2"/>
@@ -5774,7 +5803,7 @@
     <n v="445"/>
     <x v="0"/>
     <n v="5670"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="52"/>
     <s v="베리 요거트(1개)"/>
     <x v="2"/>
@@ -5783,7 +5812,7 @@
     <n v="446"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="2"/>
@@ -5792,7 +5821,7 @@
     <n v="447"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="2"/>
@@ -5801,7 +5830,7 @@
     <n v="448"/>
     <x v="0"/>
     <n v="16200"/>
-    <x v="48"/>
+    <n v="49"/>
     <x v="48"/>
     <s v="크로와상 초코도넛"/>
     <x v="2"/>
@@ -5810,7 +5839,7 @@
     <n v="449"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="23"/>
     <s v="미니 크로아상 세트(초코,플레인,아몬드)"/>
     <x v="5"/>
@@ -5819,7 +5848,7 @@
     <n v="450"/>
     <x v="0"/>
     <n v="13500"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="41"/>
     <s v="베리 까눌레"/>
     <x v="5"/>
@@ -5828,7 +5857,7 @@
     <n v="451"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="29"/>
     <s v="월넛 초코 브라우니(1개)"/>
     <x v="5"/>
@@ -5837,7 +5866,7 @@
     <n v="452"/>
     <x v="0"/>
     <n v="5850"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="46"/>
     <s v="단호박 파이(조각)"/>
     <x v="5"/>
@@ -5846,7 +5875,7 @@
     <n v="453"/>
     <x v="0"/>
     <n v="4500"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="20"/>
     <s v="파운드 케이크 플레인(조각)"/>
     <x v="5"/>
@@ -5855,7 +5884,7 @@
     <n v="454"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="5"/>
     <s v="유기농 쌀빵(3개)"/>
     <x v="5"/>
@@ -5864,7 +5893,7 @@
     <n v="455"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="40"/>
     <s v="커피맛 마카롱(3개)"/>
     <x v="5"/>
@@ -5873,7 +5902,7 @@
     <n v="456"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="38"/>
     <s v="산딸기 치즈 케이크(조각)"/>
     <x v="5"/>
@@ -5882,7 +5911,7 @@
     <n v="457"/>
     <x v="0"/>
     <n v="4230"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="4"/>
     <s v="하동 녹차 아이스크림(1개)"/>
     <x v="5"/>
@@ -5891,7 +5920,7 @@
     <n v="458"/>
     <x v="0"/>
     <n v="7380"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="6"/>
     <s v="스틱 츄러스(4개)"/>
     <x v="5"/>
@@ -5900,7 +5929,7 @@
     <n v="459"/>
     <x v="0"/>
     <n v="12600"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="24"/>
     <s v="견과류 초콜릿(1판)"/>
     <x v="5"/>
@@ -5909,7 +5938,7 @@
     <n v="460"/>
     <x v="0"/>
     <n v="34200"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="8"/>
     <s v="믹스 베리 타르트(홀)"/>
     <x v="5"/>
@@ -5918,7 +5947,7 @@
     <n v="461"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="16"/>
     <s v="딸기 유자 찹쌀떡(4개)"/>
     <x v="5"/>
@@ -5927,7 +5956,7 @@
     <n v="462"/>
     <x v="0"/>
     <n v="32400"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="27"/>
     <s v="크리미 단호박 파이(홀)"/>
     <x v="5"/>
@@ -5936,7 +5965,7 @@
     <n v="463"/>
     <x v="0"/>
     <n v="5400"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="12"/>
     <s v="믹스 캔디(딸기,파인애플,오렌지,사과)"/>
     <x v="5"/>
@@ -5945,7 +5974,7 @@
     <n v="464"/>
     <x v="0"/>
     <n v="9900"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="49"/>
     <s v="바닐라빈 마카롱(4개)"/>
     <x v="5"/>
@@ -5954,7 +5983,7 @@
     <n v="465"/>
     <x v="0"/>
     <n v="6750"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="47"/>
     <s v="믹스 젤리(80g)"/>
     <x v="5"/>
@@ -5963,7 +5992,7 @@
     <n v="466"/>
     <x v="0"/>
     <n v="17100"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="34"/>
     <s v="화이트 초콜릿(200g)"/>
     <x v="5"/>
@@ -5972,7 +6001,7 @@
     <n v="467"/>
     <x v="0"/>
     <n v="4050"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="33"/>
     <s v="치아씨드 요거트(1개)"/>
     <x v="5"/>
@@ -5981,7 +6010,7 @@
     <n v="468"/>
     <x v="0"/>
     <n v="6120"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="28"/>
     <s v="스트로베리 치즈 케이크(조각)"/>
     <x v="5"/>
@@ -5990,7 +6019,7 @@
     <n v="469"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="17"/>
     <s v="딸기쨈 쿠키(6개)"/>
     <x v="5"/>
@@ -5999,7 +6028,7 @@
     <n v="470"/>
     <x v="0"/>
     <n v="7560"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="50"/>
     <s v="마시멜로 초코 슈(3개)"/>
     <x v="5"/>
@@ -6008,7 +6037,7 @@
     <n v="471"/>
     <x v="1"/>
     <n v="26100"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="11"/>
     <s v="버터 쿠키(200g)"/>
     <x v="5"/>
@@ -6017,7 +6046,7 @@
     <n v="472"/>
     <x v="0"/>
     <n v="7020"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="14"/>
     <s v="카카오 미니 돔 케이크(조각)"/>
     <x v="5"/>
@@ -6026,7 +6055,7 @@
     <n v="473"/>
     <x v="0"/>
     <n v="6030"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="21"/>
     <s v="민트 라임 캬라멜 크레페(조각)"/>
     <x v="5"/>
@@ -6035,7 +6064,7 @@
     <n v="474"/>
     <x v="0"/>
     <n v="15120"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="13"/>
     <s v="초코 르뱅 쿠키(8개)"/>
     <x v="5"/>
@@ -6044,7 +6073,7 @@
     <n v="475"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="18"/>
     <s v="메론빵(1개)"/>
     <x v="5"/>
@@ -6053,7 +6082,7 @@
     <n v="476"/>
     <x v="0"/>
     <n v="6480"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="36"/>
     <s v="베리 다크 초콜릿(50g)"/>
     <x v="5"/>
@@ -6062,7 +6091,7 @@
     <n v="477"/>
     <x v="0"/>
     <n v="3420"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="1"/>
     <s v="라즈베리 바닐라 아이스크림 스틱"/>
     <x v="5"/>
@@ -6071,7 +6100,7 @@
     <n v="478"/>
     <x v="0"/>
     <n v="9450"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="31"/>
     <s v="밤 앙금 만쥬(6개)"/>
     <x v="5"/>
@@ -6080,7 +6109,7 @@
     <n v="479"/>
     <x v="0"/>
     <n v="10800"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="39"/>
     <s v="벨기에 와플세트"/>
     <x v="5"/>
@@ -6089,7 +6118,7 @@
     <n v="480"/>
     <x v="0"/>
     <n v="7740"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="9"/>
     <s v="초코 시나몬 롤(2개)"/>
     <x v="5"/>
@@ -6098,7 +6127,7 @@
     <n v="481"/>
     <x v="0"/>
     <n v="3150"/>
-    <x v="49"/>
+    <n v="50"/>
     <x v="43"/>
     <s v="에스프레소 푸딩(1개)"/>
     <x v="5"/>
@@ -6728,7 +6757,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="구매목록" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" colGrandTotals="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="구매목록" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" rowGrandTotals="0" colGrandTotals="0" compact="0" compactData="0">
   <location ref="A3:C306" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="7">
     <pivotField name="오더상세번호" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0"/>
@@ -6746,60 +6775,7 @@
       </items>
     </pivotField>
     <pivotField name="상품가격" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0"/>
-    <pivotField name="오더번호" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="50">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-      </items>
-    </pivotField>
+    <pivotField name="오더번호" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0"/>
     <pivotField name="상품코드" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending" defaultSubtotal="0">
       <items count="53">
         <item x="41"/>
@@ -12528,10 +12504,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="37"/>
     </row>
     <row r="2" spans="1:2" ht="18" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -12583,10 +12559,10 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="37"/>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1"/>
     <row r="11" spans="1:2" ht="18" customHeight="1"/>
@@ -13592,10 +13568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:I484"/>
+  <dimension ref="A3:I654"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F484"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="G651" sqref="G651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.5"/>
@@ -13650,7 +13626,7 @@
       <c r="G4">
         <v>7</v>
       </c>
-      <c r="I4" s="34"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="21"/>
@@ -13667,7 +13643,7 @@
       <c r="G5">
         <v>24</v>
       </c>
-      <c r="I5" s="34"/>
+      <c r="I5" s="38"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="21"/>
@@ -13684,7 +13660,7 @@
       <c r="G6">
         <v>37</v>
       </c>
-      <c r="I6" s="34"/>
+      <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="21"/>
@@ -13701,7 +13677,7 @@
       <c r="G7">
         <v>43</v>
       </c>
-      <c r="I7" s="34"/>
+      <c r="I7" s="38"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="21"/>
@@ -13718,7 +13694,7 @@
       <c r="G8">
         <v>49</v>
       </c>
-      <c r="I8" s="34"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="21"/>
@@ -13735,7 +13711,7 @@
       <c r="G9">
         <v>50</v>
       </c>
-      <c r="I9" s="34"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="21"/>
@@ -13752,7 +13728,7 @@
       <c r="G10">
         <v>51</v>
       </c>
-      <c r="I10" s="34"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="21"/>
@@ -13769,7 +13745,7 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="21"/>
@@ -13786,7 +13762,7 @@
       <c r="G12">
         <v>3</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="21"/>
@@ -13803,7 +13779,7 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="21"/>
@@ -13820,7 +13796,7 @@
       <c r="G14">
         <v>7</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="21"/>
@@ -13837,7 +13813,7 @@
       <c r="G15">
         <v>29</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="21"/>
@@ -13854,7 +13830,7 @@
       <c r="G16">
         <v>31</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="21"/>
@@ -13871,7 +13847,7 @@
       <c r="G17">
         <v>41</v>
       </c>
-      <c r="I17" s="34"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="21"/>
@@ -13888,7 +13864,7 @@
       <c r="G18">
         <v>47</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="21"/>
@@ -13905,7 +13881,7 @@
       <c r="G19">
         <v>53</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="21"/>
@@ -13922,7 +13898,7 @@
       <c r="G20">
         <v>26</v>
       </c>
-      <c r="I20" s="34"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="21"/>
@@ -13939,7 +13915,7 @@
       <c r="G21">
         <v>28</v>
       </c>
-      <c r="I21" s="34"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="21"/>
@@ -13956,7 +13932,7 @@
       <c r="G22">
         <v>43</v>
       </c>
-      <c r="I22" s="34"/>
+      <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="21"/>
@@ -13973,7 +13949,7 @@
       <c r="G23">
         <v>12</v>
       </c>
-      <c r="I23" s="34"/>
+      <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="21"/>
@@ -13990,7 +13966,7 @@
       <c r="G24">
         <v>17</v>
       </c>
-      <c r="I24" s="34"/>
+      <c r="I24" s="38"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="21"/>
@@ -14007,7 +13983,7 @@
       <c r="G25">
         <v>19</v>
       </c>
-      <c r="I25" s="34"/>
+      <c r="I25" s="38"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="21"/>
@@ -14024,7 +14000,7 @@
       <c r="G26">
         <v>20</v>
       </c>
-      <c r="I26" s="34"/>
+      <c r="I26" s="38"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="21"/>
@@ -14041,7 +14017,7 @@
       <c r="G27">
         <v>23</v>
       </c>
-      <c r="I27" s="34"/>
+      <c r="I27" s="38"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="21"/>
@@ -14058,7 +14034,7 @@
       <c r="G28">
         <v>28</v>
       </c>
-      <c r="I28" s="34"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="21"/>
@@ -14075,7 +14051,7 @@
       <c r="G29">
         <v>29</v>
       </c>
-      <c r="I29" s="34"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="21"/>
@@ -14092,7 +14068,7 @@
       <c r="G30">
         <v>6</v>
       </c>
-      <c r="I30" s="34"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="21"/>
@@ -14109,7 +14085,7 @@
       <c r="G31">
         <v>8</v>
       </c>
-      <c r="I31" s="34"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="21"/>
@@ -14126,7 +14102,7 @@
       <c r="G32">
         <v>9</v>
       </c>
-      <c r="I32" s="34"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="21"/>
@@ -14143,7 +14119,7 @@
       <c r="G33">
         <v>13</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="21"/>
@@ -14160,7 +14136,7 @@
       <c r="G34">
         <v>19</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="21"/>
@@ -14177,7 +14153,7 @@
       <c r="G35">
         <v>35</v>
       </c>
-      <c r="I35" s="34"/>
+      <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="21"/>
@@ -14194,7 +14170,7 @@
       <c r="G36">
         <v>38</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="21"/>
@@ -14211,7 +14187,7 @@
       <c r="G37">
         <v>40</v>
       </c>
-      <c r="I37" s="34"/>
+      <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="21"/>
@@ -14228,7 +14204,7 @@
       <c r="G38">
         <v>43</v>
       </c>
-      <c r="I38" s="34"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="21"/>
@@ -14245,7 +14221,7 @@
       <c r="G39">
         <v>45</v>
       </c>
-      <c r="I39" s="34"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="21"/>
@@ -14262,7 +14238,7 @@
       <c r="G40">
         <v>2</v>
       </c>
-      <c r="I40" s="34"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="21"/>
@@ -14279,7 +14255,7 @@
       <c r="G41">
         <v>8</v>
       </c>
-      <c r="I41" s="34"/>
+      <c r="I41" s="38"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="21"/>
@@ -14296,7 +14272,7 @@
       <c r="G42">
         <v>15</v>
       </c>
-      <c r="I42" s="34"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="21"/>
@@ -14313,7 +14289,7 @@
       <c r="G43">
         <v>21</v>
       </c>
-      <c r="I43" s="34"/>
+      <c r="I43" s="38"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="21"/>
@@ -14330,7 +14306,7 @@
       <c r="G44">
         <v>23</v>
       </c>
-      <c r="I44" s="34"/>
+      <c r="I44" s="38"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="21"/>
@@ -14347,7 +14323,7 @@
       <c r="G45">
         <v>24</v>
       </c>
-      <c r="I45" s="34"/>
+      <c r="I45" s="38"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="21"/>
@@ -14364,7 +14340,7 @@
       <c r="G46">
         <v>25</v>
       </c>
-      <c r="I46" s="34"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="21"/>
@@ -14381,7 +14357,7 @@
       <c r="G47">
         <v>38</v>
       </c>
-      <c r="I47" s="34"/>
+      <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="21"/>
@@ -14398,7 +14374,7 @@
       <c r="G48">
         <v>45</v>
       </c>
-      <c r="I48" s="34"/>
+      <c r="I48" s="38"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="21"/>
@@ -14417,7 +14393,7 @@
       <c r="G49">
         <v>49</v>
       </c>
-      <c r="I49" s="34"/>
+      <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="21"/>
@@ -14436,7 +14412,7 @@
       <c r="G50">
         <v>52</v>
       </c>
-      <c r="I50" s="34"/>
+      <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="21"/>
@@ -14455,7 +14431,7 @@
       <c r="G51">
         <v>19</v>
       </c>
-      <c r="I51" s="34"/>
+      <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="21"/>
@@ -14474,7 +14450,7 @@
       <c r="G52">
         <v>20</v>
       </c>
-      <c r="I52" s="34"/>
+      <c r="I52" s="38"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="21"/>
@@ -14493,7 +14469,7 @@
       <c r="G53">
         <v>22</v>
       </c>
-      <c r="I53" s="34"/>
+      <c r="I53" s="38"/>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
@@ -14514,7 +14490,7 @@
       <c r="G54">
         <v>28</v>
       </c>
-      <c r="I54" s="34"/>
+      <c r="I54" s="38"/>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="21"/>
@@ -14531,7 +14507,7 @@
       <c r="G55">
         <v>35</v>
       </c>
-      <c r="I55" s="34"/>
+      <c r="I55" s="38"/>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="21"/>
@@ -14548,7 +14524,7 @@
       <c r="G56">
         <v>38</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="38"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="21"/>
@@ -14565,7 +14541,7 @@
       <c r="G57">
         <v>41</v>
       </c>
-      <c r="I57" s="34"/>
+      <c r="I57" s="38"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="21"/>
@@ -14582,7 +14558,7 @@
       <c r="G58">
         <v>42</v>
       </c>
-      <c r="I58" s="34"/>
+      <c r="I58" s="38"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="21"/>
@@ -14599,7 +14575,7 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="I59" s="34"/>
+      <c r="I59" s="38"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="21"/>
@@ -14616,7 +14592,7 @@
       <c r="G60">
         <v>3</v>
       </c>
-      <c r="I60" s="34"/>
+      <c r="I60" s="38"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="21"/>
@@ -14633,7 +14609,7 @@
       <c r="G61">
         <v>5</v>
       </c>
-      <c r="I61" s="34"/>
+      <c r="I61" s="38"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="21"/>
@@ -14650,7 +14626,7 @@
       <c r="G62">
         <v>11</v>
       </c>
-      <c r="I62" s="34"/>
+      <c r="I62" s="38"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="21"/>
@@ -14667,7 +14643,7 @@
       <c r="G63">
         <v>14</v>
       </c>
-      <c r="I63" s="34"/>
+      <c r="I63" s="38"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="21"/>
@@ -14684,7 +14660,7 @@
       <c r="G64">
         <v>16</v>
       </c>
-      <c r="I64" s="34"/>
+      <c r="I64" s="38"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="21"/>
@@ -14701,7 +14677,7 @@
       <c r="G65">
         <v>18</v>
       </c>
-      <c r="I65" s="34"/>
+      <c r="I65" s="38"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="21"/>
@@ -14718,7 +14694,7 @@
       <c r="G66">
         <v>19</v>
       </c>
-      <c r="I66" s="34"/>
+      <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="21"/>
@@ -14735,7 +14711,7 @@
       <c r="G67">
         <v>21</v>
       </c>
-      <c r="I67" s="34"/>
+      <c r="I67" s="38"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="21"/>
@@ -14752,7 +14728,7 @@
       <c r="G68">
         <v>26</v>
       </c>
-      <c r="I68" s="34"/>
+      <c r="I68" s="38"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="21"/>
@@ -14769,7 +14745,7 @@
       <c r="G69">
         <v>27</v>
       </c>
-      <c r="I69" s="34"/>
+      <c r="I69" s="38"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="21"/>
@@ -14786,7 +14762,7 @@
       <c r="G70">
         <v>29</v>
       </c>
-      <c r="I70" s="34"/>
+      <c r="I70" s="38"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="21"/>
@@ -14803,7 +14779,7 @@
       <c r="G71">
         <v>34</v>
       </c>
-      <c r="I71" s="34"/>
+      <c r="I71" s="38"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="21"/>
@@ -14820,7 +14796,7 @@
       <c r="G72">
         <v>37</v>
       </c>
-      <c r="I72" s="34"/>
+      <c r="I72" s="38"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="21"/>
@@ -14837,7 +14813,7 @@
       <c r="G73">
         <v>44</v>
       </c>
-      <c r="I73" s="34"/>
+      <c r="I73" s="38"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="21"/>
@@ -14854,7 +14830,7 @@
       <c r="G74">
         <v>45</v>
       </c>
-      <c r="I74" s="34"/>
+      <c r="I74" s="38"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="21"/>
@@ -14871,7 +14847,7 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75" s="34"/>
+      <c r="I75" s="38"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="21"/>
@@ -14888,7 +14864,7 @@
       <c r="G76">
         <v>2</v>
       </c>
-      <c r="I76" s="34"/>
+      <c r="I76" s="38"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="21"/>
@@ -14905,7 +14881,7 @@
       <c r="G77">
         <v>3</v>
       </c>
-      <c r="I77" s="34"/>
+      <c r="I77" s="38"/>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="21"/>
@@ -14922,7 +14898,7 @@
       <c r="G78">
         <v>4</v>
       </c>
-      <c r="I78" s="34"/>
+      <c r="I78" s="38"/>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="21"/>
@@ -14939,7 +14915,7 @@
       <c r="G79">
         <v>6</v>
       </c>
-      <c r="I79" s="34"/>
+      <c r="I79" s="38"/>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="21"/>
@@ -14956,7 +14932,7 @@
       <c r="G80">
         <v>7</v>
       </c>
-      <c r="I80" s="34"/>
+      <c r="I80" s="38"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="21"/>
@@ -14973,7 +14949,7 @@
       <c r="G81">
         <v>9</v>
       </c>
-      <c r="I81" s="34"/>
+      <c r="I81" s="38"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="21"/>
@@ -14990,7 +14966,7 @@
       <c r="G82">
         <v>17</v>
       </c>
-      <c r="I82" s="34"/>
+      <c r="I82" s="38"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="21"/>
@@ -15007,7 +14983,7 @@
       <c r="G83">
         <v>19</v>
       </c>
-      <c r="I83" s="34"/>
+      <c r="I83" s="38"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="21"/>
@@ -15024,7 +15000,7 @@
       <c r="G84">
         <v>20</v>
       </c>
-      <c r="I84" s="34"/>
+      <c r="I84" s="38"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="21"/>
@@ -15041,7 +15017,7 @@
       <c r="G85">
         <v>25</v>
       </c>
-      <c r="I85" s="34"/>
+      <c r="I85" s="38"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="21"/>
@@ -15058,7 +15034,7 @@
       <c r="G86">
         <v>28</v>
       </c>
-      <c r="I86" s="34"/>
+      <c r="I86" s="38"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="21"/>
@@ -15075,7 +15051,7 @@
       <c r="G87">
         <v>30</v>
       </c>
-      <c r="I87" s="34"/>
+      <c r="I87" s="38"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="21"/>
@@ -15092,7 +15068,7 @@
       <c r="G88">
         <v>52</v>
       </c>
-      <c r="I88" s="34"/>
+      <c r="I88" s="38"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="21"/>
@@ -15109,7 +15085,7 @@
       <c r="G89">
         <v>5</v>
       </c>
-      <c r="I89" s="34"/>
+      <c r="I89" s="38"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="21"/>
@@ -15126,7 +15102,7 @@
       <c r="G90">
         <v>7</v>
       </c>
-      <c r="I90" s="34"/>
+      <c r="I90" s="38"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="21"/>
@@ -15143,7 +15119,7 @@
       <c r="G91">
         <v>10</v>
       </c>
-      <c r="I91" s="34"/>
+      <c r="I91" s="38"/>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="21"/>
@@ -15160,7 +15136,7 @@
       <c r="G92">
         <v>15</v>
       </c>
-      <c r="I92" s="34"/>
+      <c r="I92" s="38"/>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="21"/>
@@ -15177,7 +15153,7 @@
       <c r="G93">
         <v>17</v>
       </c>
-      <c r="I93" s="34"/>
+      <c r="I93" s="38"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="21"/>
@@ -15194,7 +15170,7 @@
       <c r="G94">
         <v>23</v>
       </c>
-      <c r="I94" s="34"/>
+      <c r="I94" s="38"/>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="21"/>
@@ -15211,7 +15187,7 @@
       <c r="G95">
         <v>27</v>
       </c>
-      <c r="I95" s="34"/>
+      <c r="I95" s="38"/>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="21"/>
@@ -15228,7 +15204,7 @@
       <c r="G96">
         <v>31</v>
       </c>
-      <c r="I96" s="34"/>
+      <c r="I96" s="38"/>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="21"/>
@@ -15245,7 +15221,7 @@
       <c r="G97">
         <v>34</v>
       </c>
-      <c r="I97" s="34"/>
+      <c r="I97" s="38"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="21"/>
@@ -15264,7 +15240,7 @@
       <c r="G98">
         <v>37</v>
       </c>
-      <c r="I98" s="34"/>
+      <c r="I98" s="38"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="21"/>
@@ -15283,7 +15259,7 @@
       <c r="G99">
         <v>5</v>
       </c>
-      <c r="I99" s="34"/>
+      <c r="I99" s="38"/>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="21"/>
@@ -15300,7 +15276,7 @@
       <c r="G100">
         <v>14</v>
       </c>
-      <c r="I100" s="34"/>
+      <c r="I100" s="38"/>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="18" t="s">
@@ -15321,7 +15297,7 @@
       <c r="G101">
         <v>15</v>
       </c>
-      <c r="I101" s="34"/>
+      <c r="I101" s="38"/>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="21"/>
@@ -15338,7 +15314,7 @@
       <c r="G102">
         <v>16</v>
       </c>
-      <c r="I102" s="34"/>
+      <c r="I102" s="38"/>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="21"/>
@@ -15355,7 +15331,7 @@
       <c r="G103">
         <v>17</v>
       </c>
-      <c r="I103" s="34"/>
+      <c r="I103" s="38"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="21"/>
@@ -15372,7 +15348,7 @@
       <c r="G104">
         <v>20</v>
       </c>
-      <c r="I104" s="34"/>
+      <c r="I104" s="38"/>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="21"/>
@@ -15389,7 +15365,7 @@
       <c r="G105">
         <v>24</v>
       </c>
-      <c r="I105" s="34"/>
+      <c r="I105" s="38"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="21"/>
@@ -15406,7 +15382,7 @@
       <c r="G106">
         <v>30</v>
       </c>
-      <c r="I106" s="34"/>
+      <c r="I106" s="38"/>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="21"/>
@@ -15423,7 +15399,7 @@
       <c r="G107">
         <v>47</v>
       </c>
-      <c r="I107" s="34"/>
+      <c r="I107" s="38"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="21"/>
@@ -15440,7 +15416,7 @@
       <c r="G108">
         <v>50</v>
       </c>
-      <c r="I108" s="34"/>
+      <c r="I108" s="38"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="21"/>
@@ -15457,7 +15433,7 @@
       <c r="G109">
         <v>1</v>
       </c>
-      <c r="I109" s="34"/>
+      <c r="I109" s="38"/>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="21"/>
@@ -15474,7 +15450,7 @@
       <c r="G110">
         <v>3</v>
       </c>
-      <c r="I110" s="34"/>
+      <c r="I110" s="38"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="21"/>
@@ -15491,7 +15467,7 @@
       <c r="G111">
         <v>53</v>
       </c>
-      <c r="I111" s="34"/>
+      <c r="I111" s="38"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="21"/>
@@ -15508,7 +15484,7 @@
       <c r="G112">
         <v>10</v>
       </c>
-      <c r="I112" s="34"/>
+      <c r="I112" s="38"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="21"/>
@@ -15525,7 +15501,7 @@
       <c r="G113">
         <v>16</v>
       </c>
-      <c r="I113" s="34"/>
+      <c r="I113" s="38"/>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="21"/>
@@ -15542,7 +15518,7 @@
       <c r="G114">
         <v>17</v>
       </c>
-      <c r="I114" s="34"/>
+      <c r="I114" s="38"/>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="21"/>
@@ -15559,7 +15535,7 @@
       <c r="G115">
         <v>4</v>
       </c>
-      <c r="I115" s="34"/>
+      <c r="I115" s="38"/>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="21"/>
@@ -15576,7 +15552,7 @@
       <c r="G116">
         <v>21</v>
       </c>
-      <c r="I116" s="34"/>
+      <c r="I116" s="38"/>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="21"/>
@@ -15593,7 +15569,7 @@
       <c r="G117">
         <v>23</v>
       </c>
-      <c r="I117" s="34"/>
+      <c r="I117" s="38"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="21"/>
@@ -15610,7 +15586,7 @@
       <c r="G118">
         <v>26</v>
       </c>
-      <c r="I118" s="34"/>
+      <c r="I118" s="38"/>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="21"/>
@@ -15627,7 +15603,7 @@
       <c r="G119">
         <v>30</v>
       </c>
-      <c r="I119" s="34"/>
+      <c r="I119" s="38"/>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="21"/>
@@ -15644,7 +15620,7 @@
       <c r="G120">
         <v>50</v>
       </c>
-      <c r="I120" s="34"/>
+      <c r="I120" s="38"/>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="21"/>
@@ -15661,7 +15637,7 @@
       <c r="G121">
         <v>52</v>
       </c>
-      <c r="I121" s="34"/>
+      <c r="I121" s="38"/>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="21"/>
@@ -15678,7 +15654,7 @@
       <c r="G122">
         <v>53</v>
       </c>
-      <c r="I122" s="34"/>
+      <c r="I122" s="38"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="21"/>
@@ -15695,7 +15671,7 @@
       <c r="G123">
         <v>1</v>
       </c>
-      <c r="I123" s="34"/>
+      <c r="I123" s="38"/>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="21"/>
@@ -15712,7 +15688,7 @@
       <c r="G124">
         <v>2</v>
       </c>
-      <c r="I124" s="34"/>
+      <c r="I124" s="38"/>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="21"/>
@@ -15729,7 +15705,7 @@
       <c r="G125">
         <v>22</v>
       </c>
-      <c r="I125" s="34"/>
+      <c r="I125" s="38"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="21"/>
@@ -15746,7 +15722,7 @@
       <c r="G126">
         <v>35</v>
       </c>
-      <c r="I126" s="34"/>
+      <c r="I126" s="38"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="21"/>
@@ -15763,7 +15739,7 @@
       <c r="G127">
         <v>46</v>
       </c>
-      <c r="I127" s="34"/>
+      <c r="I127" s="38"/>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="21"/>
@@ -15780,7 +15756,7 @@
       <c r="G128">
         <v>50</v>
       </c>
-      <c r="I128" s="34"/>
+      <c r="I128" s="38"/>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="21"/>
@@ -15797,7 +15773,7 @@
       <c r="G129">
         <v>52</v>
       </c>
-      <c r="I129" s="34"/>
+      <c r="I129" s="38"/>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="21"/>
@@ -15814,7 +15790,7 @@
       <c r="G130">
         <v>7</v>
       </c>
-      <c r="I130" s="34"/>
+      <c r="I130" s="38"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="21"/>
@@ -15831,7 +15807,7 @@
       <c r="G131">
         <v>17</v>
       </c>
-      <c r="I131" s="34"/>
+      <c r="I131" s="38"/>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="21"/>
@@ -15848,7 +15824,7 @@
       <c r="G132">
         <v>23</v>
       </c>
-      <c r="I132" s="34"/>
+      <c r="I132" s="38"/>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="21"/>
@@ -15865,7 +15841,7 @@
       <c r="G133">
         <v>27</v>
       </c>
-      <c r="I133" s="34"/>
+      <c r="I133" s="38"/>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="21"/>
@@ -15882,7 +15858,7 @@
       <c r="G134">
         <v>30</v>
       </c>
-      <c r="I134" s="34"/>
+      <c r="I134" s="38"/>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="21"/>
@@ -15899,7 +15875,7 @@
       <c r="G135">
         <v>34</v>
       </c>
-      <c r="I135" s="34"/>
+      <c r="I135" s="38"/>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="21"/>
@@ -15916,7 +15892,7 @@
       <c r="G136">
         <v>37</v>
       </c>
-      <c r="I136" s="34"/>
+      <c r="I136" s="38"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="21"/>
@@ -15933,7 +15909,7 @@
       <c r="G137">
         <v>41</v>
       </c>
-      <c r="I137" s="34"/>
+      <c r="I137" s="38"/>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="21"/>
@@ -15950,7 +15926,7 @@
       <c r="G138">
         <v>43</v>
       </c>
-      <c r="I138" s="34"/>
+      <c r="I138" s="38"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="21"/>
@@ -15967,7 +15943,7 @@
       <c r="G139">
         <v>46</v>
       </c>
-      <c r="I139" s="34"/>
+      <c r="I139" s="38"/>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="21"/>
@@ -15984,7 +15960,7 @@
       <c r="G140">
         <v>47</v>
       </c>
-      <c r="I140" s="34"/>
+      <c r="I140" s="38"/>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="21"/>
@@ -16001,7 +15977,7 @@
       <c r="G141">
         <v>48</v>
       </c>
-      <c r="I141" s="34"/>
+      <c r="I141" s="38"/>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="21"/>
@@ -16018,7 +15994,7 @@
       <c r="G142">
         <v>50</v>
       </c>
-      <c r="I142" s="34"/>
+      <c r="I142" s="38"/>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="21"/>
@@ -16035,7 +16011,7 @@
       <c r="G143">
         <v>51</v>
       </c>
-      <c r="I143" s="34"/>
+      <c r="I143" s="38"/>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="21"/>
@@ -16052,7 +16028,7 @@
       <c r="G144">
         <v>2</v>
       </c>
-      <c r="I144" s="34"/>
+      <c r="I144" s="38"/>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="21"/>
@@ -16069,7 +16045,7 @@
       <c r="G145">
         <v>4</v>
       </c>
-      <c r="I145" s="34"/>
+      <c r="I145" s="38"/>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="21"/>
@@ -16088,7 +16064,7 @@
       <c r="G146">
         <v>22</v>
       </c>
-      <c r="I146" s="34"/>
+      <c r="I146" s="38"/>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="21"/>
@@ -16105,7 +16081,7 @@
       <c r="G147">
         <v>24</v>
       </c>
-      <c r="I147" s="34"/>
+      <c r="I147" s="38"/>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="21"/>
@@ -16124,7 +16100,7 @@
       <c r="G148">
         <v>40</v>
       </c>
-      <c r="I148" s="34"/>
+      <c r="I148" s="38"/>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="21"/>
@@ -16143,7 +16119,7 @@
       <c r="G149">
         <v>51</v>
       </c>
-      <c r="I149" s="34"/>
+      <c r="I149" s="38"/>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="21"/>
@@ -16160,7 +16136,7 @@
       <c r="G150">
         <v>1</v>
       </c>
-      <c r="I150" s="34"/>
+      <c r="I150" s="38"/>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="21"/>
@@ -16177,7 +16153,7 @@
       <c r="G151">
         <v>9</v>
       </c>
-      <c r="I151" s="34"/>
+      <c r="I151" s="38"/>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="21"/>
@@ -16196,7 +16172,7 @@
       <c r="G152">
         <v>25</v>
       </c>
-      <c r="I152" s="34"/>
+      <c r="I152" s="38"/>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="18" t="s">
@@ -16217,7 +16193,7 @@
       <c r="G153">
         <v>29</v>
       </c>
-      <c r="I153" s="34"/>
+      <c r="I153" s="38"/>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="21"/>
@@ -16234,7 +16210,7 @@
       <c r="G154">
         <v>5</v>
       </c>
-      <c r="I154" s="34"/>
+      <c r="I154" s="38"/>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="21"/>
@@ -16251,7 +16227,7 @@
       <c r="G155">
         <v>9</v>
       </c>
-      <c r="I155" s="34"/>
+      <c r="I155" s="38"/>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="21"/>
@@ -16268,7 +16244,7 @@
       <c r="G156">
         <v>17</v>
       </c>
-      <c r="I156" s="34"/>
+      <c r="I156" s="38"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="21"/>
@@ -16285,7 +16261,7 @@
       <c r="G157">
         <v>19</v>
       </c>
-      <c r="I157" s="34"/>
+      <c r="I157" s="38"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="21"/>
@@ -16302,7 +16278,7 @@
       <c r="G158">
         <v>22</v>
       </c>
-      <c r="I158" s="34"/>
+      <c r="I158" s="38"/>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="21"/>
@@ -16319,7 +16295,7 @@
       <c r="G159">
         <v>24</v>
       </c>
-      <c r="I159" s="34"/>
+      <c r="I159" s="38"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="21"/>
@@ -16336,7 +16312,7 @@
       <c r="G160">
         <v>28</v>
       </c>
-      <c r="I160" s="34"/>
+      <c r="I160" s="38"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="21"/>
@@ -16353,7 +16329,7 @@
       <c r="G161">
         <v>40</v>
       </c>
-      <c r="I161" s="34"/>
+      <c r="I161" s="38"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="21"/>
@@ -16370,7 +16346,7 @@
       <c r="G162">
         <v>41</v>
       </c>
-      <c r="I162" s="34"/>
+      <c r="I162" s="38"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="21"/>
@@ -16387,7 +16363,7 @@
       <c r="G163">
         <v>45</v>
       </c>
-      <c r="I163" s="34"/>
+      <c r="I163" s="38"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="21"/>
@@ -16404,7 +16380,7 @@
       <c r="G164">
         <v>51</v>
       </c>
-      <c r="I164" s="34"/>
+      <c r="I164" s="38"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="21"/>
@@ -16421,7 +16397,7 @@
       <c r="G165">
         <v>1</v>
       </c>
-      <c r="I165" s="34"/>
+      <c r="I165" s="38"/>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="21"/>
@@ -16438,7 +16414,7 @@
       <c r="G166">
         <v>2</v>
       </c>
-      <c r="I166" s="34"/>
+      <c r="I166" s="38"/>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="21"/>
@@ -16455,7 +16431,7 @@
       <c r="G167">
         <v>8</v>
       </c>
-      <c r="I167" s="34"/>
+      <c r="I167" s="38"/>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="21"/>
@@ -16472,7 +16448,7 @@
       <c r="G168">
         <v>16</v>
       </c>
-      <c r="I168" s="34"/>
+      <c r="I168" s="38"/>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="21"/>
@@ -16489,7 +16465,7 @@
       <c r="G169">
         <v>17</v>
       </c>
-      <c r="I169" s="34"/>
+      <c r="I169" s="38"/>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="21"/>
@@ -16506,7 +16482,7 @@
       <c r="G170">
         <v>20</v>
       </c>
-      <c r="I170" s="34"/>
+      <c r="I170" s="38"/>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="21"/>
@@ -16523,7 +16499,7 @@
       <c r="G171">
         <v>25</v>
       </c>
-      <c r="I171" s="34"/>
+      <c r="I171" s="38"/>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="21"/>
@@ -16540,7 +16516,7 @@
       <c r="G172">
         <v>26</v>
       </c>
-      <c r="I172" s="34"/>
+      <c r="I172" s="38"/>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="21"/>
@@ -16557,7 +16533,7 @@
       <c r="G173">
         <v>27</v>
       </c>
-      <c r="I173" s="34"/>
+      <c r="I173" s="38"/>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="21"/>
@@ -16574,7 +16550,7 @@
       <c r="G174">
         <v>29</v>
       </c>
-      <c r="I174" s="34"/>
+      <c r="I174" s="38"/>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="21"/>
@@ -16591,7 +16567,7 @@
       <c r="G175">
         <v>30</v>
       </c>
-      <c r="I175" s="34"/>
+      <c r="I175" s="38"/>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="21"/>
@@ -16608,7 +16584,7 @@
       <c r="G176">
         <v>31</v>
       </c>
-      <c r="I176" s="34"/>
+      <c r="I176" s="38"/>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="21"/>
@@ -16625,7 +16601,7 @@
       <c r="G177">
         <v>38</v>
       </c>
-      <c r="I177" s="34"/>
+      <c r="I177" s="38"/>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="21"/>
@@ -16642,7 +16618,7 @@
       <c r="G178">
         <v>39</v>
       </c>
-      <c r="I178" s="34"/>
+      <c r="I178" s="38"/>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="21"/>
@@ -16659,7 +16635,7 @@
       <c r="G179">
         <v>40</v>
       </c>
-      <c r="I179" s="34"/>
+      <c r="I179" s="38"/>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="21"/>
@@ -16676,7 +16652,7 @@
       <c r="G180">
         <v>45</v>
       </c>
-      <c r="I180" s="34"/>
+      <c r="I180" s="38"/>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="21"/>
@@ -16693,7 +16669,7 @@
       <c r="G181">
         <v>46</v>
       </c>
-      <c r="I181" s="34"/>
+      <c r="I181" s="38"/>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="21"/>
@@ -16710,7 +16686,7 @@
       <c r="G182">
         <v>47</v>
       </c>
-      <c r="I182" s="34"/>
+      <c r="I182" s="38"/>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="21"/>
@@ -16727,7 +16703,7 @@
       <c r="G183">
         <v>1</v>
       </c>
-      <c r="I183" s="34"/>
+      <c r="I183" s="38"/>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="21"/>
@@ -16744,7 +16720,7 @@
       <c r="G184">
         <v>6</v>
       </c>
-      <c r="I184" s="34"/>
+      <c r="I184" s="38"/>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="21"/>
@@ -16761,7 +16737,7 @@
       <c r="G185">
         <v>7</v>
       </c>
-      <c r="I185" s="34"/>
+      <c r="I185" s="38"/>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="21"/>
@@ -16778,7 +16754,7 @@
       <c r="G186">
         <v>19</v>
       </c>
-      <c r="I186" s="34"/>
+      <c r="I186" s="38"/>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="21"/>
@@ -16795,7 +16771,7 @@
       <c r="G187">
         <v>28</v>
       </c>
-      <c r="I187" s="34"/>
+      <c r="I187" s="38"/>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="21"/>
@@ -16812,7 +16788,7 @@
       <c r="G188">
         <v>33</v>
       </c>
-      <c r="I188" s="34"/>
+      <c r="I188" s="38"/>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="21"/>
@@ -16829,7 +16805,7 @@
       <c r="G189">
         <v>39</v>
       </c>
-      <c r="I189" s="34"/>
+      <c r="I189" s="38"/>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="21"/>
@@ -16846,7 +16822,7 @@
       <c r="G190">
         <v>44</v>
       </c>
-      <c r="I190" s="34"/>
+      <c r="I190" s="38"/>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="21"/>
@@ -16865,7 +16841,7 @@
       <c r="G191">
         <v>4</v>
       </c>
-      <c r="I191" s="34"/>
+      <c r="I191" s="38"/>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="18" t="s">
@@ -16886,7 +16862,7 @@
       <c r="G192">
         <v>7</v>
       </c>
-      <c r="I192" s="34"/>
+      <c r="I192" s="38"/>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="21"/>
@@ -16903,7 +16879,7 @@
       <c r="G193">
         <v>19</v>
       </c>
-      <c r="I193" s="34"/>
+      <c r="I193" s="38"/>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="21"/>
@@ -16920,7 +16896,7 @@
       <c r="G194">
         <v>20</v>
       </c>
-      <c r="I194" s="34"/>
+      <c r="I194" s="38"/>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="21"/>
@@ -16937,7 +16913,7 @@
       <c r="G195">
         <v>26</v>
       </c>
-      <c r="I195" s="34"/>
+      <c r="I195" s="38"/>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="21"/>
@@ -16954,7 +16930,7 @@
       <c r="G196">
         <v>42</v>
       </c>
-      <c r="I196" s="34"/>
+      <c r="I196" s="38"/>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="21"/>
@@ -16971,7 +16947,7 @@
       <c r="G197">
         <v>48</v>
       </c>
-      <c r="I197" s="34"/>
+      <c r="I197" s="38"/>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="21"/>
@@ -16988,7 +16964,7 @@
       <c r="G198">
         <v>49</v>
       </c>
-      <c r="I198" s="34"/>
+      <c r="I198" s="38"/>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="21"/>
@@ -17005,7 +16981,7 @@
       <c r="G199">
         <v>4</v>
       </c>
-      <c r="I199" s="34"/>
+      <c r="I199" s="38"/>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="21"/>
@@ -17022,7 +16998,7 @@
       <c r="G200">
         <v>13</v>
       </c>
-      <c r="I200" s="34"/>
+      <c r="I200" s="38"/>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="21"/>
@@ -17039,7 +17015,7 @@
       <c r="G201">
         <v>14</v>
       </c>
-      <c r="I201" s="34"/>
+      <c r="I201" s="38"/>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="21"/>
@@ -17056,7 +17032,7 @@
       <c r="G202">
         <v>16</v>
       </c>
-      <c r="I202" s="34"/>
+      <c r="I202" s="38"/>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="21"/>
@@ -17073,7 +17049,7 @@
       <c r="G203">
         <v>21</v>
       </c>
-      <c r="I203" s="34"/>
+      <c r="I203" s="38"/>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="21"/>
@@ -17090,7 +17066,7 @@
       <c r="G204">
         <v>29</v>
       </c>
-      <c r="I204" s="34"/>
+      <c r="I204" s="38"/>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="21"/>
@@ -17107,7 +17083,7 @@
       <c r="G205">
         <v>30</v>
       </c>
-      <c r="I205" s="34"/>
+      <c r="I205" s="38"/>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="21"/>
@@ -17124,7 +17100,7 @@
       <c r="G206">
         <v>36</v>
       </c>
-      <c r="I206" s="34"/>
+      <c r="I206" s="38"/>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="21"/>
@@ -17141,7 +17117,7 @@
       <c r="G207">
         <v>39</v>
       </c>
-      <c r="I207" s="34"/>
+      <c r="I207" s="38"/>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="21"/>
@@ -17158,7 +17134,7 @@
       <c r="G208">
         <v>40</v>
       </c>
-      <c r="I208" s="34"/>
+      <c r="I208" s="38"/>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="21"/>
@@ -17175,7 +17151,7 @@
       <c r="G209">
         <v>41</v>
       </c>
-      <c r="I209" s="34"/>
+      <c r="I209" s="38"/>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="21"/>
@@ -17192,7 +17168,7 @@
       <c r="G210">
         <v>43</v>
       </c>
-      <c r="I210" s="34"/>
+      <c r="I210" s="38"/>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="21"/>
@@ -17209,7 +17185,7 @@
       <c r="G211">
         <v>44</v>
       </c>
-      <c r="I211" s="34"/>
+      <c r="I211" s="38"/>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="21"/>
@@ -17226,7 +17202,7 @@
       <c r="G212">
         <v>5</v>
       </c>
-      <c r="I212" s="34"/>
+      <c r="I212" s="38"/>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="21"/>
@@ -17243,7 +17219,7 @@
       <c r="G213">
         <v>8</v>
       </c>
-      <c r="I213" s="34"/>
+      <c r="I213" s="38"/>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="21"/>
@@ -17260,7 +17236,7 @@
       <c r="G214">
         <v>12</v>
       </c>
-      <c r="I214" s="34"/>
+      <c r="I214" s="38"/>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="21"/>
@@ -17277,7 +17253,7 @@
       <c r="G215">
         <v>13</v>
       </c>
-      <c r="I215" s="34"/>
+      <c r="I215" s="38"/>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="21"/>
@@ -17294,7 +17270,7 @@
       <c r="G216">
         <v>23</v>
       </c>
-      <c r="I216" s="34"/>
+      <c r="I216" s="38"/>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="21"/>
@@ -17311,7 +17287,7 @@
       <c r="G217">
         <v>25</v>
       </c>
-      <c r="I217" s="34"/>
+      <c r="I217" s="38"/>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="21"/>
@@ -17328,7 +17304,7 @@
       <c r="G218">
         <v>27</v>
       </c>
-      <c r="I218" s="34"/>
+      <c r="I218" s="38"/>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="21"/>
@@ -17345,7 +17321,7 @@
       <c r="G219">
         <v>34</v>
       </c>
-      <c r="I219" s="34"/>
+      <c r="I219" s="38"/>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="21"/>
@@ -17362,7 +17338,7 @@
       <c r="G220">
         <v>35</v>
       </c>
-      <c r="I220" s="34"/>
+      <c r="I220" s="38"/>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="21"/>
@@ -17379,7 +17355,7 @@
       <c r="G221">
         <v>36</v>
       </c>
-      <c r="I221" s="34"/>
+      <c r="I221" s="38"/>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="21"/>
@@ -17396,7 +17372,7 @@
       <c r="G222">
         <v>37</v>
       </c>
-      <c r="I222" s="34"/>
+      <c r="I222" s="38"/>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="21"/>
@@ -17413,7 +17389,7 @@
       <c r="G223">
         <v>39</v>
       </c>
-      <c r="I223" s="34"/>
+      <c r="I223" s="38"/>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="21"/>
@@ -17430,7 +17406,7 @@
       <c r="G224">
         <v>40</v>
       </c>
-      <c r="I224" s="34"/>
+      <c r="I224" s="38"/>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="21"/>
@@ -17447,7 +17423,7 @@
       <c r="G225">
         <v>45</v>
       </c>
-      <c r="I225" s="34"/>
+      <c r="I225" s="38"/>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="21"/>
@@ -17464,7 +17440,7 @@
       <c r="G226">
         <v>1</v>
       </c>
-      <c r="I226" s="34"/>
+      <c r="I226" s="38"/>
     </row>
     <row r="227" spans="1:9">
       <c r="A227" s="21"/>
@@ -17481,7 +17457,7 @@
       <c r="G227">
         <v>8</v>
       </c>
-      <c r="I227" s="34"/>
+      <c r="I227" s="38"/>
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="21"/>
@@ -17498,7 +17474,7 @@
       <c r="G228">
         <v>9</v>
       </c>
-      <c r="I228" s="34"/>
+      <c r="I228" s="38"/>
     </row>
     <row r="229" spans="1:9">
       <c r="A229" s="21"/>
@@ -17515,7 +17491,7 @@
       <c r="G229">
         <v>23</v>
       </c>
-      <c r="I229" s="34"/>
+      <c r="I229" s="38"/>
     </row>
     <row r="230" spans="1:9">
       <c r="A230" s="21"/>
@@ -17532,7 +17508,7 @@
       <c r="G230">
         <v>41</v>
       </c>
-      <c r="I230" s="34"/>
+      <c r="I230" s="38"/>
     </row>
     <row r="231" spans="1:9">
       <c r="A231" s="21"/>
@@ -17549,7 +17525,7 @@
       <c r="G231">
         <v>47</v>
       </c>
-      <c r="I231" s="34"/>
+      <c r="I231" s="38"/>
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="21"/>
@@ -17566,7 +17542,7 @@
       <c r="G232">
         <v>4</v>
       </c>
-      <c r="I232" s="34"/>
+      <c r="I232" s="38"/>
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="21"/>
@@ -17583,7 +17559,7 @@
       <c r="G233">
         <v>8</v>
       </c>
-      <c r="I233" s="34"/>
+      <c r="I233" s="38"/>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="21"/>
@@ -17600,7 +17576,7 @@
       <c r="G234">
         <v>35</v>
       </c>
-      <c r="I234" s="34"/>
+      <c r="I234" s="38"/>
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="21"/>
@@ -17617,7 +17593,7 @@
       <c r="G235">
         <v>51</v>
       </c>
-      <c r="I235" s="34"/>
+      <c r="I235" s="38"/>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="21"/>
@@ -17634,7 +17610,7 @@
       <c r="G236">
         <v>1</v>
       </c>
-      <c r="I236" s="34"/>
+      <c r="I236" s="38"/>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="21"/>
@@ -17651,7 +17627,7 @@
       <c r="G237">
         <v>9</v>
       </c>
-      <c r="I237" s="34"/>
+      <c r="I237" s="38"/>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="21"/>
@@ -17670,7 +17646,7 @@
       <c r="G238">
         <v>21</v>
       </c>
-      <c r="I238" s="34"/>
+      <c r="I238" s="38"/>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="21"/>
@@ -17687,7 +17663,7 @@
       <c r="G239">
         <v>33</v>
       </c>
-      <c r="I239" s="34"/>
+      <c r="I239" s="38"/>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="21"/>
@@ -17706,7 +17682,7 @@
       <c r="G240">
         <v>41</v>
       </c>
-      <c r="I240" s="34"/>
+      <c r="I240" s="38"/>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="18" t="s">
@@ -17727,7 +17703,7 @@
       <c r="G241">
         <v>43</v>
       </c>
-      <c r="I241" s="34"/>
+      <c r="I241" s="38"/>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="21"/>
@@ -17744,7 +17720,7 @@
       <c r="G242">
         <v>5</v>
       </c>
-      <c r="I242" s="34"/>
+      <c r="I242" s="38"/>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="21"/>
@@ -17761,7 +17737,7 @@
       <c r="G243">
         <v>6</v>
       </c>
-      <c r="I243" s="34"/>
+      <c r="I243" s="38"/>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="21"/>
@@ -17778,7 +17754,7 @@
       <c r="G244">
         <v>8</v>
       </c>
-      <c r="I244" s="34"/>
+      <c r="I244" s="38"/>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="21"/>
@@ -17795,7 +17771,7 @@
       <c r="G245">
         <v>12</v>
       </c>
-      <c r="I245" s="34"/>
+      <c r="I245" s="38"/>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="21"/>
@@ -17812,7 +17788,7 @@
       <c r="G246">
         <v>16</v>
       </c>
-      <c r="I246" s="34"/>
+      <c r="I246" s="38"/>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="21"/>
@@ -17829,7 +17805,7 @@
       <c r="G247">
         <v>17</v>
       </c>
-      <c r="I247" s="34"/>
+      <c r="I247" s="38"/>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="21"/>
@@ -17846,7 +17822,7 @@
       <c r="G248">
         <v>27</v>
       </c>
-      <c r="I248" s="34"/>
+      <c r="I248" s="38"/>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="21"/>
@@ -17863,7 +17839,7 @@
       <c r="G249">
         <v>35</v>
       </c>
-      <c r="I249" s="34"/>
+      <c r="I249" s="38"/>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="21"/>
@@ -17880,7 +17856,7 @@
       <c r="G250">
         <v>46</v>
       </c>
-      <c r="I250" s="34"/>
+      <c r="I250" s="38"/>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="21"/>
@@ -17897,7 +17873,7 @@
       <c r="G251">
         <v>49</v>
       </c>
-      <c r="I251" s="34"/>
+      <c r="I251" s="38"/>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="21"/>
@@ -17914,7 +17890,7 @@
       <c r="G252">
         <v>3</v>
       </c>
-      <c r="I252" s="34"/>
+      <c r="I252" s="38"/>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="21"/>
@@ -17931,7 +17907,7 @@
       <c r="G253">
         <v>34</v>
       </c>
-      <c r="I253" s="34"/>
+      <c r="I253" s="38"/>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="21"/>
@@ -17948,7 +17924,7 @@
       <c r="G254">
         <v>44</v>
       </c>
-      <c r="I254" s="34"/>
+      <c r="I254" s="38"/>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="21"/>
@@ -17965,7 +17941,7 @@
       <c r="G255">
         <v>48</v>
       </c>
-      <c r="I255" s="34"/>
+      <c r="I255" s="38"/>
     </row>
     <row r="256" spans="1:9">
       <c r="A256" s="21"/>
@@ -17982,7 +17958,7 @@
       <c r="G256">
         <v>9</v>
       </c>
-      <c r="I256" s="34"/>
+      <c r="I256" s="38"/>
     </row>
     <row r="257" spans="1:9">
       <c r="A257" s="21"/>
@@ -17999,7 +17975,7 @@
       <c r="G257">
         <v>15</v>
       </c>
-      <c r="I257" s="34"/>
+      <c r="I257" s="38"/>
     </row>
     <row r="258" spans="1:9">
       <c r="A258" s="21"/>
@@ -18016,7 +17992,7 @@
       <c r="G258">
         <v>19</v>
       </c>
-      <c r="I258" s="34"/>
+      <c r="I258" s="38"/>
     </row>
     <row r="259" spans="1:9">
       <c r="A259" s="21"/>
@@ -18033,7 +18009,7 @@
       <c r="G259">
         <v>34</v>
       </c>
-      <c r="I259" s="34"/>
+      <c r="I259" s="38"/>
     </row>
     <row r="260" spans="1:9">
       <c r="A260" s="21"/>
@@ -18050,7 +18026,7 @@
       <c r="G260">
         <v>38</v>
       </c>
-      <c r="I260" s="34"/>
+      <c r="I260" s="38"/>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="21"/>
@@ -18067,7 +18043,7 @@
       <c r="G261">
         <v>45</v>
       </c>
-      <c r="I261" s="34"/>
+      <c r="I261" s="38"/>
     </row>
     <row r="262" spans="1:9">
       <c r="A262" s="21"/>
@@ -18084,7 +18060,7 @@
       <c r="G262">
         <v>47</v>
       </c>
-      <c r="I262" s="34"/>
+      <c r="I262" s="38"/>
     </row>
     <row r="263" spans="1:9">
       <c r="A263" s="21"/>
@@ -18101,7 +18077,7 @@
       <c r="G263">
         <v>2</v>
       </c>
-      <c r="I263" s="34"/>
+      <c r="I263" s="38"/>
     </row>
     <row r="264" spans="1:9">
       <c r="A264" s="21"/>
@@ -18118,7 +18094,7 @@
       <c r="G264">
         <v>9</v>
       </c>
-      <c r="I264" s="34"/>
+      <c r="I264" s="38"/>
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="21"/>
@@ -18135,7 +18111,7 @@
       <c r="G265">
         <v>15</v>
       </c>
-      <c r="I265" s="34"/>
+      <c r="I265" s="38"/>
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="21"/>
@@ -18152,7 +18128,7 @@
       <c r="G266">
         <v>23</v>
       </c>
-      <c r="I266" s="34"/>
+      <c r="I266" s="38"/>
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="21"/>
@@ -18169,7 +18145,7 @@
       <c r="G267">
         <v>28</v>
       </c>
-      <c r="I267" s="34"/>
+      <c r="I267" s="38"/>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="21"/>
@@ -18186,7 +18162,7 @@
       <c r="G268">
         <v>42</v>
       </c>
-      <c r="I268" s="34"/>
+      <c r="I268" s="38"/>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="21"/>
@@ -18203,7 +18179,7 @@
       <c r="G269">
         <v>44</v>
       </c>
-      <c r="I269" s="34"/>
+      <c r="I269" s="38"/>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="21"/>
@@ -18220,7 +18196,7 @@
       <c r="G270">
         <v>46</v>
       </c>
-      <c r="I270" s="34"/>
+      <c r="I270" s="38"/>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="21"/>
@@ -18237,7 +18213,7 @@
       <c r="G271">
         <v>52</v>
       </c>
-      <c r="I271" s="34"/>
+      <c r="I271" s="38"/>
     </row>
     <row r="272" spans="1:9">
       <c r="A272" s="21"/>
@@ -18254,7 +18230,7 @@
       <c r="G272">
         <v>53</v>
       </c>
-      <c r="I272" s="34"/>
+      <c r="I272" s="38"/>
     </row>
     <row r="273" spans="1:9">
       <c r="A273" s="21"/>
@@ -18271,7 +18247,7 @@
       <c r="G273">
         <v>5</v>
       </c>
-      <c r="I273" s="34"/>
+      <c r="I273" s="38"/>
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="21"/>
@@ -18288,7 +18264,7 @@
       <c r="G274">
         <v>8</v>
       </c>
-      <c r="I274" s="34"/>
+      <c r="I274" s="38"/>
     </row>
     <row r="275" spans="1:9">
       <c r="A275" s="21"/>
@@ -18305,7 +18281,7 @@
       <c r="G275">
         <v>10</v>
       </c>
-      <c r="I275" s="34"/>
+      <c r="I275" s="38"/>
     </row>
     <row r="276" spans="1:9">
       <c r="A276" s="21"/>
@@ -18324,7 +18300,7 @@
       <c r="G276">
         <v>20</v>
       </c>
-      <c r="I276" s="34"/>
+      <c r="I276" s="38"/>
     </row>
     <row r="277" spans="1:9">
       <c r="A277" s="18" t="s">
@@ -18345,7 +18321,7 @@
       <c r="G277">
         <v>28</v>
       </c>
-      <c r="I277" s="34"/>
+      <c r="I277" s="38"/>
     </row>
     <row r="278" spans="1:9">
       <c r="A278" s="21"/>
@@ -18362,7 +18338,7 @@
       <c r="G278">
         <v>39</v>
       </c>
-      <c r="I278" s="34"/>
+      <c r="I278" s="38"/>
     </row>
     <row r="279" spans="1:9">
       <c r="A279" s="21"/>
@@ -18379,7 +18355,7 @@
       <c r="G279">
         <v>5</v>
       </c>
-      <c r="I279" s="34"/>
+      <c r="I279" s="38"/>
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="21"/>
@@ -18396,7 +18372,7 @@
       <c r="G280">
         <v>10</v>
       </c>
-      <c r="I280" s="34"/>
+      <c r="I280" s="38"/>
     </row>
     <row r="281" spans="1:9">
       <c r="A281" s="21"/>
@@ -18413,7 +18389,7 @@
       <c r="G281">
         <v>38</v>
       </c>
-      <c r="I281" s="34"/>
+      <c r="I281" s="38"/>
     </row>
     <row r="282" spans="1:9">
       <c r="A282" s="21"/>
@@ -18430,7 +18406,7 @@
       <c r="G282">
         <v>40</v>
       </c>
-      <c r="I282" s="34"/>
+      <c r="I282" s="38"/>
     </row>
     <row r="283" spans="1:9">
       <c r="A283" s="21"/>
@@ -18447,7 +18423,7 @@
       <c r="G283">
         <v>45</v>
       </c>
-      <c r="I283" s="34"/>
+      <c r="I283" s="38"/>
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="21"/>
@@ -18464,7 +18440,7 @@
       <c r="G284">
         <v>3</v>
       </c>
-      <c r="I284" s="34"/>
+      <c r="I284" s="38"/>
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="21"/>
@@ -18481,7 +18457,7 @@
       <c r="G285">
         <v>6</v>
       </c>
-      <c r="I285" s="34"/>
+      <c r="I285" s="38"/>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="21"/>
@@ -18498,7 +18474,7 @@
       <c r="G286">
         <v>7</v>
       </c>
-      <c r="I286" s="34"/>
+      <c r="I286" s="38"/>
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="21"/>
@@ -18515,7 +18491,7 @@
       <c r="G287">
         <v>9</v>
       </c>
-      <c r="I287" s="34"/>
+      <c r="I287" s="38"/>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="21"/>
@@ -18532,7 +18508,7 @@
       <c r="G288">
         <v>10</v>
       </c>
-      <c r="I288" s="34"/>
+      <c r="I288" s="38"/>
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="21"/>
@@ -18810,10 +18786,10 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306" s="24"/>
-      <c r="B306" s="35">
+      <c r="B306" s="32">
         <v>10</v>
       </c>
-      <c r="C306" s="36">
+      <c r="C306" s="33">
         <v>7</v>
       </c>
       <c r="E306" t="s">
@@ -20782,6 +20758,1876 @@
       </c>
       <c r="G484">
         <v>51</v>
+      </c>
+    </row>
+    <row r="485" spans="5:7">
+      <c r="E485" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F485" s="2">
+        <v>1</v>
+      </c>
+      <c r="G485" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="5:7">
+      <c r="E486" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F486" s="2">
+        <v>2</v>
+      </c>
+      <c r="G486" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="487" spans="5:7">
+      <c r="E487" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F487" s="2">
+        <v>1</v>
+      </c>
+      <c r="G487" s="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="488" spans="5:7">
+      <c r="E488" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F488" s="2">
+        <v>1</v>
+      </c>
+      <c r="G488" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="489" spans="5:7">
+      <c r="E489" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F489" s="2">
+        <v>1</v>
+      </c>
+      <c r="G489" s="34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="490" spans="5:7">
+      <c r="E490" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F490" s="2">
+        <v>1</v>
+      </c>
+      <c r="G490" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="491" spans="5:7">
+      <c r="E491" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F491" s="2">
+        <v>1</v>
+      </c>
+      <c r="G491" s="34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="492" spans="5:7">
+      <c r="E492" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F492" s="2">
+        <v>1</v>
+      </c>
+      <c r="G492" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="5:7">
+      <c r="E493" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F493" s="2">
+        <v>1</v>
+      </c>
+      <c r="G493" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="5:7">
+      <c r="E494" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F494" s="2">
+        <v>1</v>
+      </c>
+      <c r="G494" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="5:7">
+      <c r="E495" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F495" s="2">
+        <v>1</v>
+      </c>
+      <c r="G495" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="5:7">
+      <c r="E496" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F496" s="2">
+        <v>1</v>
+      </c>
+      <c r="G496" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="497" spans="5:7">
+      <c r="E497" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F497" s="2">
+        <v>1</v>
+      </c>
+      <c r="G497" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="498" spans="5:7">
+      <c r="E498" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F498" s="2">
+        <v>1</v>
+      </c>
+      <c r="G498" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="499" spans="5:7">
+      <c r="E499" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F499" s="2">
+        <v>2</v>
+      </c>
+      <c r="G499" s="34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="500" spans="5:7">
+      <c r="E500" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F500" s="2">
+        <v>3</v>
+      </c>
+      <c r="G500" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="501" spans="5:7">
+      <c r="E501" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F501" s="2">
+        <v>1</v>
+      </c>
+      <c r="G501" s="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="502" spans="5:7">
+      <c r="E502" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F502" s="2">
+        <v>1</v>
+      </c>
+      <c r="G502" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="503" spans="5:7">
+      <c r="E503" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F503" s="2">
+        <v>1</v>
+      </c>
+      <c r="G503" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="504" spans="5:7">
+      <c r="E504" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F504" s="2">
+        <v>1</v>
+      </c>
+      <c r="G504" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="5:7">
+      <c r="E505" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F505" s="2">
+        <v>1</v>
+      </c>
+      <c r="G505" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="506" spans="5:7">
+      <c r="E506" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F506" s="2">
+        <v>1</v>
+      </c>
+      <c r="G506" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="507" spans="5:7">
+      <c r="E507" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F507" s="2">
+        <v>1</v>
+      </c>
+      <c r="G507" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="5:7">
+      <c r="E508" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F508" s="2">
+        <v>1</v>
+      </c>
+      <c r="G508" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="509" spans="5:7">
+      <c r="E509" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F509" s="2">
+        <v>1</v>
+      </c>
+      <c r="G509" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="510" spans="5:7">
+      <c r="E510" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F510" s="2">
+        <v>1</v>
+      </c>
+      <c r="G510" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="511" spans="5:7">
+      <c r="E511" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F511" s="2">
+        <v>1</v>
+      </c>
+      <c r="G511" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="512" spans="5:7">
+      <c r="E512" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F512" s="2">
+        <v>1</v>
+      </c>
+      <c r="G512" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="5:7">
+      <c r="E513" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F513" s="2">
+        <v>1</v>
+      </c>
+      <c r="G513" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="514" spans="5:7">
+      <c r="E514" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F514" s="2">
+        <v>1</v>
+      </c>
+      <c r="G514" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515" spans="5:7">
+      <c r="E515" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F515" s="2">
+        <v>1</v>
+      </c>
+      <c r="G515" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="516" spans="5:7">
+      <c r="E516" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F516" s="2">
+        <v>1</v>
+      </c>
+      <c r="G516" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="5:7">
+      <c r="E517" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F517" s="2">
+        <v>1</v>
+      </c>
+      <c r="G517" s="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="518" spans="5:7">
+      <c r="E518" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F518" s="2">
+        <v>1</v>
+      </c>
+      <c r="G518" s="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="519" spans="5:7">
+      <c r="E519" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F519" s="2">
+        <v>1</v>
+      </c>
+      <c r="G519" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="520" spans="5:7">
+      <c r="E520" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F520" s="2">
+        <v>1</v>
+      </c>
+      <c r="G520" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="521" spans="5:7">
+      <c r="E521" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F521" s="2">
+        <v>1</v>
+      </c>
+      <c r="G521" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="5:7">
+      <c r="E522" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F522" s="2">
+        <v>1</v>
+      </c>
+      <c r="G522" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="5:7">
+      <c r="E523" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F523" s="2">
+        <v>1</v>
+      </c>
+      <c r="G523" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="524" spans="5:7">
+      <c r="E524" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F524" s="2">
+        <v>1</v>
+      </c>
+      <c r="G524" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="525" spans="5:7">
+      <c r="E525" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F525" s="2">
+        <v>1</v>
+      </c>
+      <c r="G525" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="526" spans="5:7">
+      <c r="E526" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F526" s="2">
+        <v>1</v>
+      </c>
+      <c r="G526" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="527" spans="5:7">
+      <c r="E527" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F527" s="2">
+        <v>1</v>
+      </c>
+      <c r="G527" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="528" spans="5:7">
+      <c r="E528" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F528" s="2">
+        <v>1</v>
+      </c>
+      <c r="G528" s="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="529" spans="5:7">
+      <c r="E529" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F529" s="2">
+        <v>1</v>
+      </c>
+      <c r="G529" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="530" spans="5:7">
+      <c r="E530" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F530" s="2">
+        <v>1</v>
+      </c>
+      <c r="G530" s="34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="531" spans="5:7">
+      <c r="E531" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F531" s="2">
+        <v>1</v>
+      </c>
+      <c r="G531" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="532" spans="5:7">
+      <c r="E532" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F532" s="2">
+        <v>5</v>
+      </c>
+      <c r="G532" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="533" spans="5:7">
+      <c r="E533" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F533" s="2">
+        <v>1</v>
+      </c>
+      <c r="G533" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="534" spans="5:7">
+      <c r="E534" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F534" s="2">
+        <v>1</v>
+      </c>
+      <c r="G534" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="535" spans="5:7">
+      <c r="E535" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F535" s="2">
+        <v>1</v>
+      </c>
+      <c r="G535" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="536" spans="5:7">
+      <c r="E536" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F536" s="2">
+        <v>1</v>
+      </c>
+      <c r="G536" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="537" spans="5:7">
+      <c r="E537" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F537" s="2">
+        <v>1</v>
+      </c>
+      <c r="G537" s="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="538" spans="5:7">
+      <c r="E538" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F538" s="2">
+        <v>9</v>
+      </c>
+      <c r="G538" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="539" spans="5:7">
+      <c r="E539" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F539" s="2">
+        <v>1</v>
+      </c>
+      <c r="G539" s="34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="540" spans="5:7">
+      <c r="E540" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F540" s="2">
+        <v>1</v>
+      </c>
+      <c r="G540" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="5:7">
+      <c r="E541" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F541" s="2">
+        <v>1</v>
+      </c>
+      <c r="G541" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="542" spans="5:7">
+      <c r="E542" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F542" s="2">
+        <v>1</v>
+      </c>
+      <c r="G542" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="5:7">
+      <c r="E543" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F543" s="2">
+        <v>1</v>
+      </c>
+      <c r="G543" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" spans="5:7">
+      <c r="E544" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F544" s="2">
+        <v>1</v>
+      </c>
+      <c r="G544" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="545" spans="5:7">
+      <c r="E545" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F545" s="2">
+        <v>1</v>
+      </c>
+      <c r="G545" s="34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="546" spans="5:7">
+      <c r="E546" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F546" s="2">
+        <v>1</v>
+      </c>
+      <c r="G546" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="547" spans="5:7">
+      <c r="E547" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F547" s="2">
+        <v>1</v>
+      </c>
+      <c r="G547" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="548" spans="5:7">
+      <c r="E548" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F548" s="2">
+        <v>1</v>
+      </c>
+      <c r="G548" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="549" spans="5:7">
+      <c r="E549" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F549" s="2">
+        <v>1</v>
+      </c>
+      <c r="G549" s="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="550" spans="5:7">
+      <c r="E550" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F550" s="2">
+        <v>1</v>
+      </c>
+      <c r="G550" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="551" spans="5:7">
+      <c r="E551" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F551" s="2">
+        <v>1</v>
+      </c>
+      <c r="G551" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="552" spans="5:7">
+      <c r="E552" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F552" s="2">
+        <v>1</v>
+      </c>
+      <c r="G552" s="34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="553" spans="5:7">
+      <c r="E553" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F553" s="2">
+        <v>1</v>
+      </c>
+      <c r="G553" s="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="554" spans="5:7">
+      <c r="E554" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F554" s="2">
+        <v>1</v>
+      </c>
+      <c r="G554" s="34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="555" spans="5:7">
+      <c r="E555" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F555" s="2">
+        <v>1</v>
+      </c>
+      <c r="G555" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="556" spans="5:7">
+      <c r="E556" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F556" s="2">
+        <v>1</v>
+      </c>
+      <c r="G556" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="5:7">
+      <c r="E557" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F557" s="2">
+        <v>1</v>
+      </c>
+      <c r="G557" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="5:7">
+      <c r="E558" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F558" s="2">
+        <v>1</v>
+      </c>
+      <c r="G558" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="559" spans="5:7">
+      <c r="E559" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F559" s="2">
+        <v>1</v>
+      </c>
+      <c r="G559" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="560" spans="5:7">
+      <c r="E560" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F560" s="2">
+        <v>1</v>
+      </c>
+      <c r="G560" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="561" spans="5:7">
+      <c r="E561" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F561" s="2">
+        <v>1</v>
+      </c>
+      <c r="G561" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562" spans="5:7">
+      <c r="E562" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F562" s="2">
+        <v>1</v>
+      </c>
+      <c r="G562" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="563" spans="5:7">
+      <c r="E563" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F563" s="2">
+        <v>1</v>
+      </c>
+      <c r="G563" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="564" spans="5:7">
+      <c r="E564" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F564" s="2">
+        <v>1</v>
+      </c>
+      <c r="G564" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="565" spans="5:7">
+      <c r="E565" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F565" s="2">
+        <v>1</v>
+      </c>
+      <c r="G565" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="566" spans="5:7">
+      <c r="E566" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F566" s="2">
+        <v>1</v>
+      </c>
+      <c r="G566" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="5:7">
+      <c r="E567" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F567" s="2">
+        <v>1</v>
+      </c>
+      <c r="G567" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="568" spans="5:7">
+      <c r="E568" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F568" s="2">
+        <v>1</v>
+      </c>
+      <c r="G568" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="569" spans="5:7">
+      <c r="E569" s="39" t="s">
+        <v>369</v>
+      </c>
+      <c r="F569" s="2">
+        <v>1</v>
+      </c>
+      <c r="G569" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="570" spans="5:7">
+      <c r="E570" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F570" s="2">
+        <v>1</v>
+      </c>
+      <c r="G570" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571" spans="5:7">
+      <c r="E571" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F571" s="2">
+        <v>2</v>
+      </c>
+      <c r="G571" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="572" spans="5:7">
+      <c r="E572" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F572" s="2">
+        <v>1</v>
+      </c>
+      <c r="G572" s="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="573" spans="5:7">
+      <c r="E573" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F573" s="2">
+        <v>1</v>
+      </c>
+      <c r="G573" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="574" spans="5:7">
+      <c r="E574" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F574" s="2">
+        <v>1</v>
+      </c>
+      <c r="G574" s="34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="575" spans="5:7">
+      <c r="E575" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F575" s="2">
+        <v>1</v>
+      </c>
+      <c r="G575" s="34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="576" spans="5:7">
+      <c r="E576" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F576" s="2">
+        <v>1</v>
+      </c>
+      <c r="G576" s="34">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="577" spans="5:7">
+      <c r="E577" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F577" s="2">
+        <v>1</v>
+      </c>
+      <c r="G577" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="5:7">
+      <c r="E578" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F578" s="2">
+        <v>1</v>
+      </c>
+      <c r="G578" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="579" spans="5:7">
+      <c r="E579" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F579" s="2">
+        <v>1</v>
+      </c>
+      <c r="G579" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="5:7">
+      <c r="E580" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F580" s="2">
+        <v>1</v>
+      </c>
+      <c r="G580" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="5:7">
+      <c r="E581" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F581" s="2">
+        <v>1</v>
+      </c>
+      <c r="G581" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="582" spans="5:7">
+      <c r="E582" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F582" s="2">
+        <v>1</v>
+      </c>
+      <c r="G582" s="34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="583" spans="5:7">
+      <c r="E583" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F583" s="2">
+        <v>1</v>
+      </c>
+      <c r="G583" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="584" spans="5:7">
+      <c r="E584" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F584" s="2">
+        <v>2</v>
+      </c>
+      <c r="G584" s="34">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="585" spans="5:7">
+      <c r="E585" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F585" s="2">
+        <v>3</v>
+      </c>
+      <c r="G585" s="34">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="586" spans="5:7">
+      <c r="E586" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F586" s="2">
+        <v>1</v>
+      </c>
+      <c r="G586" s="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="587" spans="5:7">
+      <c r="E587" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F587" s="2">
+        <v>1</v>
+      </c>
+      <c r="G587" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="588" spans="5:7">
+      <c r="E588" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F588" s="2">
+        <v>1</v>
+      </c>
+      <c r="G588" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="589" spans="5:7">
+      <c r="E589" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F589" s="2">
+        <v>1</v>
+      </c>
+      <c r="G589" s="34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590" spans="5:7">
+      <c r="E590" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F590" s="2">
+        <v>1</v>
+      </c>
+      <c r="G590" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="591" spans="5:7">
+      <c r="E591" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F591" s="2">
+        <v>1</v>
+      </c>
+      <c r="G591" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="592" spans="5:7">
+      <c r="E592" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F592" s="2">
+        <v>1</v>
+      </c>
+      <c r="G592" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="593" spans="5:7">
+      <c r="E593" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F593" s="2">
+        <v>1</v>
+      </c>
+      <c r="G593" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="594" spans="5:7">
+      <c r="E594" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F594" s="2">
+        <v>1</v>
+      </c>
+      <c r="G594" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="595" spans="5:7">
+      <c r="E595" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F595" s="2">
+        <v>1</v>
+      </c>
+      <c r="G595" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="596" spans="5:7">
+      <c r="E596" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F596" s="2">
+        <v>1</v>
+      </c>
+      <c r="G596" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="597" spans="5:7">
+      <c r="E597" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F597" s="2">
+        <v>1</v>
+      </c>
+      <c r="G597" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="5:7">
+      <c r="E598" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F598" s="2">
+        <v>1</v>
+      </c>
+      <c r="G598" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="599" spans="5:7">
+      <c r="E599" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F599" s="2">
+        <v>1</v>
+      </c>
+      <c r="G599" s="34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600" spans="5:7">
+      <c r="E600" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F600" s="2">
+        <v>1</v>
+      </c>
+      <c r="G600" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="601" spans="5:7">
+      <c r="E601" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F601" s="2">
+        <v>1</v>
+      </c>
+      <c r="G601" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="602" spans="5:7">
+      <c r="E602" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F602" s="2">
+        <v>1</v>
+      </c>
+      <c r="G602" s="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="603" spans="5:7">
+      <c r="E603" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F603" s="2">
+        <v>1</v>
+      </c>
+      <c r="G603" s="34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="604" spans="5:7">
+      <c r="E604" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F604" s="2">
+        <v>1</v>
+      </c>
+      <c r="G604" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="605" spans="5:7">
+      <c r="E605" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F605" s="2">
+        <v>1</v>
+      </c>
+      <c r="G605" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="606" spans="5:7">
+      <c r="E606" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F606" s="2">
+        <v>1</v>
+      </c>
+      <c r="G606" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="5:7">
+      <c r="E607" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F607" s="2">
+        <v>1</v>
+      </c>
+      <c r="G607" s="34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="608" spans="5:7">
+      <c r="E608" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F608" s="2">
+        <v>1</v>
+      </c>
+      <c r="G608" s="34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="609" spans="5:7">
+      <c r="E609" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F609" s="2">
+        <v>1</v>
+      </c>
+      <c r="G609" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="610" spans="5:7">
+      <c r="E610" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F610" s="2">
+        <v>1</v>
+      </c>
+      <c r="G610" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="611" spans="5:7">
+      <c r="E611" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F611" s="2">
+        <v>1</v>
+      </c>
+      <c r="G611" s="34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="612" spans="5:7">
+      <c r="E612" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F612" s="2">
+        <v>1</v>
+      </c>
+      <c r="G612" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="613" spans="5:7">
+      <c r="E613" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F613" s="2">
+        <v>1</v>
+      </c>
+      <c r="G613" s="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="614" spans="5:7">
+      <c r="E614" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F614" s="2">
+        <v>1</v>
+      </c>
+      <c r="G614" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="615" spans="5:7">
+      <c r="E615" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F615" s="2">
+        <v>1</v>
+      </c>
+      <c r="G615" s="34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="616" spans="5:7">
+      <c r="E616" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F616" s="2">
+        <v>1</v>
+      </c>
+      <c r="G616" s="34">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="617" spans="5:7">
+      <c r="E617" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F617" s="2">
+        <v>5</v>
+      </c>
+      <c r="G617" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="618" spans="5:7">
+      <c r="E618" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F618" s="2">
+        <v>1</v>
+      </c>
+      <c r="G618" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="619" spans="5:7">
+      <c r="E619" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F619" s="2">
+        <v>1</v>
+      </c>
+      <c r="G619" s="34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="620" spans="5:7">
+      <c r="E620" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F620" s="2">
+        <v>1</v>
+      </c>
+      <c r="G620" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="621" spans="5:7">
+      <c r="E621" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F621" s="2">
+        <v>1</v>
+      </c>
+      <c r="G621" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="622" spans="5:7">
+      <c r="E622" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F622" s="2">
+        <v>1</v>
+      </c>
+      <c r="G622" s="34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="623" spans="5:7">
+      <c r="E623" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F623" s="2">
+        <v>9</v>
+      </c>
+      <c r="G623" s="34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="624" spans="5:7">
+      <c r="E624" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F624" s="2">
+        <v>1</v>
+      </c>
+      <c r="G624" s="34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="625" spans="5:7">
+      <c r="E625" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F625" s="2">
+        <v>1</v>
+      </c>
+      <c r="G625" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="5:7">
+      <c r="E626" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F626" s="2">
+        <v>1</v>
+      </c>
+      <c r="G626" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="627" spans="5:7">
+      <c r="E627" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F627" s="2">
+        <v>1</v>
+      </c>
+      <c r="G627" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="5:7">
+      <c r="E628" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F628" s="2">
+        <v>1</v>
+      </c>
+      <c r="G628" s="34">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="629" spans="5:7">
+      <c r="E629" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F629" s="2">
+        <v>1</v>
+      </c>
+      <c r="G629" s="34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="630" spans="5:7">
+      <c r="E630" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F630" s="2">
+        <v>1</v>
+      </c>
+      <c r="G630" s="34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="631" spans="5:7">
+      <c r="E631" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F631" s="2">
+        <v>1</v>
+      </c>
+      <c r="G631" s="34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="632" spans="5:7">
+      <c r="E632" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F632" s="2">
+        <v>1</v>
+      </c>
+      <c r="G632" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="633" spans="5:7">
+      <c r="E633" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F633" s="2">
+        <v>1</v>
+      </c>
+      <c r="G633" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="634" spans="5:7">
+      <c r="E634" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F634" s="2">
+        <v>1</v>
+      </c>
+      <c r="G634" s="34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="635" spans="5:7">
+      <c r="E635" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F635" s="2">
+        <v>1</v>
+      </c>
+      <c r="G635" s="34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="636" spans="5:7">
+      <c r="E636" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F636" s="2">
+        <v>1</v>
+      </c>
+      <c r="G636" s="34">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="637" spans="5:7">
+      <c r="E637" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F637" s="2">
+        <v>1</v>
+      </c>
+      <c r="G637" s="34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="638" spans="5:7">
+      <c r="E638" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F638" s="2">
+        <v>1</v>
+      </c>
+      <c r="G638" s="34">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="639" spans="5:7">
+      <c r="E639" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F639" s="2">
+        <v>1</v>
+      </c>
+      <c r="G639" s="34">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="640" spans="5:7">
+      <c r="E640" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F640" s="2">
+        <v>1</v>
+      </c>
+      <c r="G640" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="641" spans="5:7">
+      <c r="E641" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F641" s="2">
+        <v>1</v>
+      </c>
+      <c r="G641" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="5:7">
+      <c r="E642" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F642" s="2">
+        <v>1</v>
+      </c>
+      <c r="G642" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="5:7">
+      <c r="E643" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F643" s="2">
+        <v>1</v>
+      </c>
+      <c r="G643" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="644" spans="5:7">
+      <c r="E644" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F644" s="2">
+        <v>1</v>
+      </c>
+      <c r="G644" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="5:7">
+      <c r="E645" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F645" s="2">
+        <v>1</v>
+      </c>
+      <c r="G645" s="34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646" spans="5:7">
+      <c r="E646" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F646" s="2">
+        <v>1</v>
+      </c>
+      <c r="G646" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="5:7">
+      <c r="E647" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F647" s="2">
+        <v>1</v>
+      </c>
+      <c r="G647" s="34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="648" spans="5:7">
+      <c r="E648" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F648" s="2">
+        <v>1</v>
+      </c>
+      <c r="G648" s="34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="649" spans="5:7">
+      <c r="E649" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F649" s="2">
+        <v>1</v>
+      </c>
+      <c r="G649" s="34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="650" spans="5:7">
+      <c r="E650" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F650" s="2">
+        <v>1</v>
+      </c>
+      <c r="G650" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="651" spans="5:7">
+      <c r="E651" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F651" s="2">
+        <v>1</v>
+      </c>
+      <c r="G651" s="34">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="652" spans="5:7">
+      <c r="E652" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F652" s="2">
+        <v>1</v>
+      </c>
+      <c r="G652" s="34">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="653" spans="5:7">
+      <c r="E653" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F653" s="2">
+        <v>1</v>
+      </c>
+      <c r="G653" s="34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="654" spans="5:7">
+      <c r="E654" s="39" t="s">
+        <v>370</v>
+      </c>
+      <c r="F654" s="2">
+        <v>1</v>
+      </c>
+      <c r="G654" s="34">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -22497,11 +24343,425 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687822BC-71DB-4A71-BBB1-D0727650BBEC}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="15.5"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="35">
+      <c r="A1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.5">
+      <c r="A2" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="14">
+        <v>32008</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="17.5">
+      <c r="A3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I3" s="14">
+        <v>36839</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="17.5">
+      <c r="A4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I4" s="14">
+        <v>37020</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17.5">
+      <c r="A5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="14">
+        <v>37354</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.5">
+      <c r="A6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" s="14">
+        <v>37747</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17.5">
+      <c r="A7" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="14">
+        <v>38147</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17.5">
+      <c r="A8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I8" s="14">
+        <v>38541</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17.5">
+      <c r="A9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="14">
+        <v>38938</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17.5">
+      <c r="A10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="I10" s="14">
+        <v>39335</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17.5">
+      <c r="A11" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1234</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I11" s="14">
+        <v>39470</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BE966"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="AZ482" sqref="AZ1:AZ482"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
